--- a/Jogos_do_Dia/2023-03-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -358,238 +358,238 @@
     <t>Samsunspor</t>
   </si>
   <si>
+    <t>Legion</t>
+  </si>
+  <si>
+    <t>Tallinna FC Levadia U21</t>
+  </si>
+  <si>
+    <t>AEK Larnaca</t>
+  </si>
+  <si>
+    <t>Wisła Płock</t>
+  </si>
+  <si>
+    <t>Randers</t>
+  </si>
+  <si>
+    <t>CFR Cluj</t>
+  </si>
+  <si>
+    <t>Hapoel Tel Aviv</t>
+  </si>
+  <si>
+    <t>Universitario de Vinto</t>
+  </si>
+  <si>
+    <t>Almere City</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>NAC Breda</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
+    <t>West Bromwich Albion U21</t>
+  </si>
+  <si>
+    <t>Manchester United U21</t>
+  </si>
+  <si>
+    <t>The New Saints</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Crusaders</t>
+  </si>
+  <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
+    <t>Versailles</t>
+  </si>
+  <si>
+    <t>San Telmo</t>
+  </si>
+  <si>
+    <t>Racing Santander</t>
+  </si>
+  <si>
+    <t>Girona FC</t>
+  </si>
+  <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>Famalicão</t>
+  </si>
+  <si>
+    <t>Sportivo Ameliano</t>
+  </si>
+  <si>
+    <t>Palestino</t>
+  </si>
+  <si>
+    <t>Universitario Popayán</t>
+  </si>
+  <si>
+    <t>Defensor Sporting</t>
+  </si>
+  <si>
+    <t>Al Masry</t>
+  </si>
+  <si>
+    <t>El Geish</t>
+  </si>
+  <si>
+    <t>Pyramids FC</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>Deportivo Binacional</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Deportes Quindío</t>
+  </si>
+  <si>
+    <t>Cerro Porteño</t>
+  </si>
+  <si>
+    <t>Coquimbo Unido</t>
+  </si>
+  <si>
+    <t>Audax Italiano</t>
+  </si>
+  <si>
+    <t>Democrata GV</t>
+  </si>
+  <si>
+    <t>Vélez Sarsfield</t>
+  </si>
+  <si>
+    <t>Colón</t>
+  </si>
+  <si>
+    <t>Deportivo Cuenca</t>
+  </si>
+  <si>
+    <t>Las Vegas Lights</t>
+  </si>
+  <si>
+    <t>Técnico Universitario</t>
+  </si>
+  <si>
+    <t>Unión Santa Fe</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
+    <t>Puerto Montt</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Tijuana</t>
+  </si>
+  <si>
+    <t>Unión Magdalena</t>
+  </si>
+  <si>
+    <t>New England Revolution</t>
+  </si>
+  <si>
+    <t>Necaxa</t>
+  </si>
+  <si>
+    <t>Western United</t>
+  </si>
+  <si>
+    <t>Nassaji Mazandaran</t>
+  </si>
+  <si>
+    <t>Malavan</t>
+  </si>
+  <si>
+    <t>OF Ierapetra</t>
+  </si>
+  <si>
+    <t>FK Jezero Plav</t>
+  </si>
+  <si>
+    <t>Niki Volos</t>
+  </si>
+  <si>
+    <t>CSKA 1948 Sofia II</t>
+  </si>
+  <si>
+    <t>Lovech</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Prostějov</t>
+  </si>
+  <si>
+    <t>Bačka Topola</t>
+  </si>
+  <si>
+    <t>Voluntari</t>
+  </si>
+  <si>
+    <t>Beroe</t>
+  </si>
+  <si>
+    <t>Al-Hidd</t>
+  </si>
+  <si>
+    <t>Al Ahli</t>
+  </si>
+  <si>
+    <t>Al Mokawloon</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Górnik Łęczna</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Altay</t>
+  </si>
+  <si>
+    <t>Bandırmaspor</t>
+  </si>
+  <si>
+    <t>Paide Linnameeskond U21</t>
+  </si>
+  <si>
     <t>Elva</t>
-  </si>
-  <si>
-    <t>Legion</t>
-  </si>
-  <si>
-    <t>AEK Larnaca</t>
-  </si>
-  <si>
-    <t>Wisła Płock</t>
-  </si>
-  <si>
-    <t>Randers</t>
-  </si>
-  <si>
-    <t>CFR Cluj</t>
-  </si>
-  <si>
-    <t>Hapoel Tel Aviv</t>
-  </si>
-  <si>
-    <t>Universitario de Vinto</t>
-  </si>
-  <si>
-    <t>Almere City</t>
-  </si>
-  <si>
-    <t>Eindhoven</t>
-  </si>
-  <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
-    <t>NAC Breda</t>
-  </si>
-  <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
-    <t>West Bromwich Albion U21</t>
-  </si>
-  <si>
-    <t>Manchester United U21</t>
-  </si>
-  <si>
-    <t>The New Saints</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Crusaders</t>
-  </si>
-  <si>
-    <t>AC Milan</t>
-  </si>
-  <si>
-    <t>Versailles</t>
-  </si>
-  <si>
-    <t>San Telmo</t>
-  </si>
-  <si>
-    <t>Racing Santander</t>
-  </si>
-  <si>
-    <t>Girona FC</t>
-  </si>
-  <si>
-    <t>River Plate</t>
-  </si>
-  <si>
-    <t>Famalicão</t>
-  </si>
-  <si>
-    <t>Sportivo Ameliano</t>
-  </si>
-  <si>
-    <t>Palestino</t>
-  </si>
-  <si>
-    <t>Universitario Popayán</t>
-  </si>
-  <si>
-    <t>Defensor Sporting</t>
-  </si>
-  <si>
-    <t>Al Masry</t>
-  </si>
-  <si>
-    <t>El Geish</t>
-  </si>
-  <si>
-    <t>Pyramids FC</t>
-  </si>
-  <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>Deportivo Binacional</t>
-  </si>
-  <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Deportes Quindío</t>
-  </si>
-  <si>
-    <t>Cerro Porteño</t>
-  </si>
-  <si>
-    <t>Coquimbo Unido</t>
-  </si>
-  <si>
-    <t>Audax Italiano</t>
-  </si>
-  <si>
-    <t>Democrata GV</t>
-  </si>
-  <si>
-    <t>Vélez Sarsfield</t>
-  </si>
-  <si>
-    <t>Colón</t>
-  </si>
-  <si>
-    <t>Deportivo Cuenca</t>
-  </si>
-  <si>
-    <t>Las Vegas Lights</t>
-  </si>
-  <si>
-    <t>Técnico Universitario</t>
-  </si>
-  <si>
-    <t>Unión Santa Fe</t>
-  </si>
-  <si>
-    <t>Boca Juniors</t>
-  </si>
-  <si>
-    <t>Puerto Montt</t>
-  </si>
-  <si>
-    <t>Monterrey</t>
-  </si>
-  <si>
-    <t>Tijuana</t>
-  </si>
-  <si>
-    <t>Unión Magdalena</t>
-  </si>
-  <si>
-    <t>New England Revolution</t>
-  </si>
-  <si>
-    <t>Necaxa</t>
-  </si>
-  <si>
-    <t>Western United</t>
-  </si>
-  <si>
-    <t>Nassaji Mazandaran</t>
-  </si>
-  <si>
-    <t>Malavan</t>
-  </si>
-  <si>
-    <t>OF Ierapetra</t>
-  </si>
-  <si>
-    <t>FK Jezero Plav</t>
-  </si>
-  <si>
-    <t>Niki Volos</t>
-  </si>
-  <si>
-    <t>CSKA 1948 Sofia II</t>
-  </si>
-  <si>
-    <t>Lovech</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>Prostějov</t>
-  </si>
-  <si>
-    <t>Bačka Topola</t>
-  </si>
-  <si>
-    <t>Voluntari</t>
-  </si>
-  <si>
-    <t>Beroe</t>
-  </si>
-  <si>
-    <t>Al-Hidd</t>
-  </si>
-  <si>
-    <t>Al Ahli</t>
-  </si>
-  <si>
-    <t>Al Mokawloon</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Górnik Łęczna</t>
-  </si>
-  <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Altay</t>
-  </si>
-  <si>
-    <t>Bandırmaspor</t>
-  </si>
-  <si>
-    <t>Tallinna FC Levadia U21</t>
-  </si>
-  <si>
-    <t>Paide Linnameeskond U21</t>
   </si>
   <si>
     <t>Apollon</t>
@@ -1207,13 +1207,13 @@
         <v>159</v>
       </c>
       <c r="F2">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="G2">
-        <v>4.32</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I2">
         <v>1.03</v>
@@ -1228,7 +1228,7 @@
         <v>4.2</v>
       </c>
       <c r="M2">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="N2">
         <v>2.15</v>
@@ -1623,13 +1623,13 @@
         <v>163</v>
       </c>
       <c r="F6">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="H6">
-        <v>4.05</v>
+        <v>3.5</v>
       </c>
       <c r="I6">
         <v>1.05</v>
@@ -1644,10 +1644,10 @@
         <v>2.88</v>
       </c>
       <c r="M6">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O6">
         <v>1.44</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>166</v>
       </c>
       <c r="F9">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="G9">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="I9">
         <v>1.1</v>
@@ -1950,13 +1950,13 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="L9">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="N9">
         <v>1.5</v>
@@ -2039,13 +2039,13 @@
         <v>167</v>
       </c>
       <c r="F10">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G10">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="H10">
-        <v>7.15</v>
+        <v>5.9</v>
       </c>
       <c r="I10">
         <v>1.02</v>
@@ -2060,10 +2060,10 @@
         <v>4.75</v>
       </c>
       <c r="M10">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="N10">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="O10">
         <v>1.3</v>
@@ -2247,13 +2247,13 @@
         <v>169</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="G12">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H12">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I12">
         <v>1.03</v>
@@ -2268,10 +2268,10 @@
         <v>4</v>
       </c>
       <c r="M12">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O12">
         <v>1.33</v>
@@ -2351,52 +2351,52 @@
         <v>170</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V13">
         <v>1.55</v>
@@ -2455,52 +2455,52 @@
         <v>171</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="V14">
         <v>0.27</v>
@@ -2559,13 +2559,13 @@
         <v>172</v>
       </c>
       <c r="F15">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="G15">
         <v>3.7</v>
       </c>
       <c r="H15">
-        <v>7.75</v>
+        <v>7.6</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2663,52 +2663,52 @@
         <v>173</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V16">
         <v>1.25</v>
@@ -2767,13 +2767,13 @@
         <v>174</v>
       </c>
       <c r="F17">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="G17">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H17">
-        <v>5.75</v>
+        <v>5.65</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2871,31 +2871,31 @@
         <v>175</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>6.07</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.85</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2904,19 +2904,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="V18">
         <v>1.7</v>
@@ -2975,31 +2975,31 @@
         <v>176</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3008,19 +3008,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
         <v>2.4</v>
@@ -3079,13 +3079,13 @@
         <v>177</v>
       </c>
       <c r="F20">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="G20">
-        <v>3.52</v>
+        <v>3.21</v>
       </c>
       <c r="H20">
-        <v>3.48</v>
+        <v>2.67</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -3100,10 +3100,10 @@
         <v>3.74</v>
       </c>
       <c r="M20">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="N20">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="O20">
         <v>1.39</v>
@@ -3183,37 +3183,37 @@
         <v>178</v>
       </c>
       <c r="F21">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="H21">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="N21">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q21">
         <v>1.73</v>
@@ -3222,13 +3222,13 @@
         <v>2</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V21">
         <v>1.67</v>
@@ -3287,13 +3287,13 @@
         <v>179</v>
       </c>
       <c r="F22">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="G22">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>1.08</v>
@@ -3308,10 +3308,10 @@
         <v>2.84</v>
       </c>
       <c r="M22">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="N22">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O22">
         <v>1.5</v>
@@ -3391,13 +3391,13 @@
         <v>180</v>
       </c>
       <c r="F23">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G23">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="H23">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I23">
         <v>1.11</v>
@@ -3412,10 +3412,10 @@
         <v>2.35</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N23">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="O23">
         <v>1.56</v>
@@ -3475,7 +3475,7 @@
         <v>3.88</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="24" spans="1:34">
@@ -3495,13 +3495,13 @@
         <v>181</v>
       </c>
       <c r="F24">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="G24">
         <v>3.25</v>
       </c>
       <c r="H24">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I24">
         <v>1.05</v>
@@ -3516,10 +3516,10 @@
         <v>2.75</v>
       </c>
       <c r="M24">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="N24">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="O24">
         <v>1.49</v>
@@ -3599,13 +3599,13 @@
         <v>182</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3620,16 +3620,16 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>183</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -3807,52 +3807,52 @@
         <v>184</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V27">
         <v>1.33</v>
@@ -3879,19 +3879,19 @@
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -3911,37 +3911,37 @@
         <v>185</v>
       </c>
       <c r="F28">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="G28">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H28">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="M28">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="N28">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Q28">
         <v>2.1</v>
@@ -3950,13 +3950,13 @@
         <v>1.67</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
         <v>1.4</v>
@@ -4015,52 +4015,52 @@
         <v>146</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="V29">
         <v>1.11</v>
@@ -4078,28 +4078,28 @@
         <v>2.9</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="30" spans="1:34">
@@ -4119,37 +4119,37 @@
         <v>186</v>
       </c>
       <c r="F30">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="G30">
+        <v>3.6</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>1.05</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>1.25</v>
+      </c>
+      <c r="L30">
         <v>3.75</v>
       </c>
-      <c r="H30">
-        <v>4.7</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
       <c r="M30">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="N30">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q30">
         <v>1.83</v>
@@ -4158,13 +4158,13 @@
         <v>1.83</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V30">
         <v>1.18</v>
@@ -4223,10 +4223,10 @@
         <v>187</v>
       </c>
       <c r="F31">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="G31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H31">
         <v>2.2</v>
@@ -4244,10 +4244,10 @@
         <v>3.75</v>
       </c>
       <c r="M31">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="N31">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O31">
         <v>1.34</v>
@@ -4327,13 +4327,13 @@
         <v>188</v>
       </c>
       <c r="F32">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="G32">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="I32">
         <v>1.03</v>
@@ -4348,10 +4348,10 @@
         <v>3.75</v>
       </c>
       <c r="M32">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="N32">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O32">
         <v>1.34</v>
@@ -4399,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -4431,13 +4431,13 @@
         <v>189</v>
       </c>
       <c r="F33">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="G33">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H33">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
       <c r="I33">
         <v>1.02</v>
@@ -4452,10 +4452,10 @@
         <v>4.2</v>
       </c>
       <c r="M33">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="N33">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="O33">
         <v>1.3</v>
@@ -4515,7 +4515,7 @@
         <v>2.98</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="34" spans="1:34">
@@ -4535,13 +4535,13 @@
         <v>190</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4556,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -4589,13 +4589,13 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -4630,7 +4630,7 @@
         <v>44998.58333333334</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
         <v>115</v>
@@ -4639,13 +4639,13 @@
         <v>191</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4693,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>2.11</v>
+        <v>2.36</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Z35">
-        <v>2.11</v>
+        <v>3.59</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -4746,34 +4746,34 @@
         <v>1.85</v>
       </c>
       <c r="G36">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H36">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M36">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="N36">
         <v>1.7</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q36">
         <v>1.91</v>
@@ -4782,13 +4782,13 @@
         <v>1.8</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V36">
         <v>2.19</v>
@@ -4847,13 +4847,13 @@
         <v>193</v>
       </c>
       <c r="F37">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="G37">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H37">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I37">
         <v>1.06</v>
@@ -4868,7 +4868,7 @@
         <v>3.3</v>
       </c>
       <c r="M37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="N37">
         <v>1.8</v>
@@ -4919,7 +4919,7 @@
         <v>2.05</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE37">
         <v>1.29</v>
@@ -4951,13 +4951,13 @@
         <v>194</v>
       </c>
       <c r="F38">
-        <v>2.51</v>
+        <v>2.4</v>
       </c>
       <c r="G38">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="H38">
-        <v>2.89</v>
+        <v>2.95</v>
       </c>
       <c r="I38">
         <v>1.08</v>
@@ -4972,10 +4972,10 @@
         <v>2.75</v>
       </c>
       <c r="M38">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>1.81</v>
       </c>
       <c r="O38">
         <v>1.5</v>
@@ -5055,13 +5055,13 @@
         <v>195</v>
       </c>
       <c r="F39">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="G39">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H39">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="I39">
         <v>1.08</v>
@@ -5073,13 +5073,13 @@
         <v>1.54</v>
       </c>
       <c r="L39">
-        <v>2.31</v>
+        <v>2.43</v>
       </c>
       <c r="M39">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N39">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="O39">
         <v>1.45</v>
@@ -5159,52 +5159,52 @@
         <v>196</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H40">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="M40">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="N40">
+        <v>2.05</v>
+      </c>
+      <c r="O40">
+        <v>1.31</v>
+      </c>
+      <c r="P40">
+        <v>3.26</v>
+      </c>
+      <c r="Q40">
         <v>2</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>2.1</v>
-      </c>
       <c r="R40">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="V40">
         <v>1.17</v>
@@ -5222,28 +5222,28 @@
         <v>3.41</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="41" spans="1:34">
@@ -5263,13 +5263,13 @@
         <v>197</v>
       </c>
       <c r="F41">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="G41">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H41">
-        <v>5.8</v>
+        <v>4.95</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -5284,10 +5284,10 @@
         <v>3.84</v>
       </c>
       <c r="M41">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="N41">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="O41">
         <v>1.33</v>
@@ -5439,7 +5439,7 @@
         <v>4.05</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE42">
         <v>1.29</v>
@@ -5855,7 +5855,7 @@
         <v>4.05</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE46">
         <v>1.35</v>
@@ -5991,13 +5991,13 @@
         <v>204</v>
       </c>
       <c r="F48">
-        <v>3.4</v>
+        <v>2.61</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>4.14</v>
       </c>
       <c r="H48">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="I48">
         <v>1.01</v>
@@ -6095,13 +6095,13 @@
         <v>205</v>
       </c>
       <c r="F49">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="G49">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="H49">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="I49">
         <v>1.01</v>
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="M49">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="N49">
-        <v>2.84</v>
+        <v>3.34</v>
       </c>
       <c r="O49">
         <v>1.25</v>
@@ -6303,13 +6303,13 @@
         <v>207</v>
       </c>
       <c r="F51">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="G51">
-        <v>2.65</v>
+        <v>2.97</v>
       </c>
       <c r="H51">
-        <v>3.3</v>
+        <v>3.31</v>
       </c>
       <c r="I51">
         <v>1.12</v>
@@ -6324,10 +6324,10 @@
         <v>2.25</v>
       </c>
       <c r="M51">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="N51">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O51">
         <v>1.62</v>
@@ -6407,13 +6407,13 @@
         <v>208</v>
       </c>
       <c r="F52">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="G52">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H52">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>1.04</v>
@@ -6428,10 +6428,10 @@
         <v>4</v>
       </c>
       <c r="M52">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="N52">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="O52">
         <v>1.33</v>
@@ -6479,7 +6479,7 @@
         <v>2.67</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE52">
         <v>1.63</v>
@@ -6491,7 +6491,7 @@
         <v>2.75</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="53" spans="1:34">
@@ -6511,13 +6511,13 @@
         <v>209</v>
       </c>
       <c r="F53">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="G53">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I53">
         <v>1.03</v>
@@ -6532,10 +6532,10 @@
         <v>4.5</v>
       </c>
       <c r="M53">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="N53">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="O53">
         <v>1.3</v>
@@ -6615,52 +6615,52 @@
         <v>210</v>
       </c>
       <c r="F54">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="G54">
-        <v>3.47</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>5.45</v>
+        <v>5.5</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M54">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N54">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Q54">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="R54">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="V54">
         <v>2</v>
@@ -6719,13 +6719,13 @@
         <v>211</v>
       </c>
       <c r="F55">
-        <v>4.34</v>
+        <v>4.17</v>
       </c>
       <c r="G55">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="H55">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="I55">
         <v>1.06</v>
@@ -6740,10 +6740,10 @@
         <v>2.48</v>
       </c>
       <c r="M55">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="N55">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O55">
         <v>1.54</v>
@@ -6803,7 +6803,7 @@
         <v>3.08</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="56" spans="1:34">
@@ -6823,13 +6823,13 @@
         <v>212</v>
       </c>
       <c r="F56">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="G56">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="H56">
-        <v>3.75</v>
+        <v>3.12</v>
       </c>
       <c r="I56">
         <v>1.12</v>
@@ -6838,16 +6838,16 @@
         <v>5.5</v>
       </c>
       <c r="K56">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L56">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="M56">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="N56">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="O56">
         <v>1.62</v>
@@ -6927,13 +6927,13 @@
         <v>213</v>
       </c>
       <c r="F57">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="G57">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H57">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="I57">
         <v>1.07</v>
@@ -6951,7 +6951,7 @@
         <v>2.3</v>
       </c>
       <c r="N57">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O57">
         <v>1.44</v>
@@ -7031,13 +7031,13 @@
         <v>214</v>
       </c>
       <c r="F58">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="G58">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="I58">
         <v>1.05</v>
@@ -7052,10 +7052,10 @@
         <v>2.6</v>
       </c>
       <c r="M58">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="N58">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="O58">
         <v>1.53</v>
@@ -7135,13 +7135,13 @@
         <v>215</v>
       </c>
       <c r="F59">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="G59">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I59">
         <v>1.09</v>
@@ -7156,10 +7156,10 @@
         <v>2.7</v>
       </c>
       <c r="M59">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N59">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O59">
         <v>1.53</v>
@@ -7239,13 +7239,13 @@
         <v>216</v>
       </c>
       <c r="F60">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="G60">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="H60">
-        <v>2.79</v>
+        <v>2.68</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -7260,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="N60">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -7343,13 +7343,13 @@
         <v>217</v>
       </c>
       <c r="F61">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H61">
-        <v>3.32</v>
+        <v>3.17</v>
       </c>
       <c r="I61">
         <v>1.04</v>
@@ -7551,13 +7551,13 @@
         <v>219</v>
       </c>
       <c r="F63">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="G63">
-        <v>3.16</v>
+        <v>3.22</v>
       </c>
       <c r="H63">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="I63">
         <v>1.03</v>
@@ -7572,10 +7572,10 @@
         <v>2.97</v>
       </c>
       <c r="M63">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="N63">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="O63">
         <v>1.4</v>
@@ -8071,13 +8071,13 @@
         <v>224</v>
       </c>
       <c r="F68">
-        <v>2.51</v>
+        <v>2.97</v>
       </c>
       <c r="G68">
-        <v>3.36</v>
+        <v>2.98</v>
       </c>
       <c r="H68">
-        <v>2.68</v>
+        <v>2.28</v>
       </c>
       <c r="I68">
         <v>1.05</v>
@@ -8095,7 +8095,7 @@
         <v>1.95</v>
       </c>
       <c r="N68">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O68">
         <v>1.4</v>
@@ -8175,13 +8175,13 @@
         <v>225</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -8279,13 +8279,13 @@
         <v>226</v>
       </c>
       <c r="F70">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="G70">
-        <v>4.14</v>
+        <v>3.98</v>
       </c>
       <c r="H70">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="I70">
         <v>1.07</v>
@@ -8300,10 +8300,10 @@
         <v>3</v>
       </c>
       <c r="M70">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="N70">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O70">
         <v>1.46</v>
@@ -8383,13 +8383,13 @@
         <v>227</v>
       </c>
       <c r="F71">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G71">
-        <v>3.13</v>
+        <v>3.23</v>
       </c>
       <c r="H71">
-        <v>3.18</v>
+        <v>3.27</v>
       </c>
       <c r="I71">
         <v>1.05</v>
@@ -8404,10 +8404,10 @@
         <v>2.92</v>
       </c>
       <c r="M71">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="N71">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="O71">
         <v>1.4</v>
@@ -8487,13 +8487,13 @@
         <v>228</v>
       </c>
       <c r="F72">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>3.58</v>
       </c>
       <c r="H72">
-        <v>6.55</v>
+        <v>5.2</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -8508,10 +8508,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="N72">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -8591,13 +8591,13 @@
         <v>229</v>
       </c>
       <c r="F73">
-        <v>1.86</v>
+        <v>2.42</v>
       </c>
       <c r="G73">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H73">
-        <v>3.75</v>
+        <v>2.43</v>
       </c>
       <c r="I73">
         <v>1.05</v>
@@ -8612,10 +8612,10 @@
         <v>3.5</v>
       </c>
       <c r="M73">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="N73">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O73">
         <v>1.4</v>
@@ -8695,13 +8695,13 @@
         <v>230</v>
       </c>
       <c r="F74">
-        <v>2.29</v>
+        <v>2.23</v>
       </c>
       <c r="G74">
-        <v>3.15</v>
+        <v>3.31</v>
       </c>
       <c r="H74">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="I74">
         <v>1.06</v>
@@ -8716,10 +8716,10 @@
         <v>3.1</v>
       </c>
       <c r="M74">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="N74">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O74">
         <v>1.44</v>
@@ -8799,13 +8799,13 @@
         <v>231</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -8820,10 +8820,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -8880,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="AG75">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH75">
         <v>0</v>
@@ -9111,13 +9111,13 @@
         <v>234</v>
       </c>
       <c r="F78">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G78">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I78">
         <v>1.05</v>
@@ -9132,10 +9132,10 @@
         <v>2.67</v>
       </c>
       <c r="M78">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="N78">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="O78">
         <v>1.44</v>

--- a/Jogos_do_Dia/2023-03-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="231">
   <si>
     <t>League</t>
   </si>
@@ -178,49 +178,49 @@
     <t>Cyprus First Division</t>
   </si>
   <si>
+    <t>Estonia Esiliiga</t>
+  </si>
+  <si>
     <t>Poland 1. Liga</t>
   </si>
   <si>
+    <t>Turkey 1. Lig</t>
+  </si>
+  <si>
     <t>Turkey Süper Lig</t>
   </si>
   <si>
-    <t>Turkey 1. Lig</t>
-  </si>
-  <si>
-    <t>Estonia Esiliiga</t>
+    <t>Denmark Superliga</t>
   </si>
   <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
     <t>Israel Israeli Premier League</t>
   </si>
   <si>
+    <t>Netherlands Eerste Divisie</t>
+  </si>
+  <si>
     <t>Bolivia LFPB</t>
   </si>
   <si>
-    <t>Netherlands Eerste Divisie</t>
-  </si>
-  <si>
-    <t>England Premier League 2 Division Two U23</t>
-  </si>
-  <si>
-    <t>England Premier League 2 Division One U23</t>
-  </si>
-  <si>
     <t>Wales Welsh Premier League</t>
   </si>
   <si>
+    <t>Italy Serie A</t>
+  </si>
+  <si>
     <t>France Ligue 2</t>
   </si>
   <si>
     <t>Northern Ireland NIFL Premiership</t>
   </si>
   <si>
-    <t>Italy Serie A</t>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
+    <t>Spain La Liga</t>
   </si>
   <si>
     <t>France National</t>
@@ -229,33 +229,27 @@
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
-    <t>Spain Segunda División</t>
-  </si>
-  <si>
-    <t>Spain La Liga</t>
-  </si>
-  <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
     <t>Portugal Liga NOS</t>
   </si>
   <si>
+    <t>Colombia Categoria Primera B</t>
+  </si>
+  <si>
+    <t>Chile Primera División</t>
+  </si>
+  <si>
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Chile Primera División</t>
-  </si>
-  <si>
-    <t>Colombia Categoria Primera B</t>
+    <t>Brazil Campeonato Brasileiro Women</t>
   </si>
   <si>
     <t>Peru Primera División</t>
   </si>
   <si>
-    <t>Brazil Campeonato Brasileiro Women</t>
-  </si>
-  <si>
     <t>Brazil Paulista A1</t>
   </si>
   <si>
@@ -337,85 +331,85 @@
     <t>Al Hala</t>
   </si>
   <si>
+    <t>National Bank of Egypt</t>
+  </si>
+  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
     <t>AEL</t>
   </si>
   <si>
-    <t>National Bank of Egypt</t>
+    <t>AEK Larnaca</t>
+  </si>
+  <si>
+    <t>Tallinna FC Levadia U21</t>
+  </si>
+  <si>
+    <t>Legion</t>
   </si>
   <si>
     <t>Arka Gdynia</t>
   </si>
   <si>
+    <t>Eyüpspor</t>
+  </si>
+  <si>
     <t>İstanbulspor</t>
   </si>
   <si>
-    <t>Eyüpspor</t>
-  </si>
-  <si>
     <t>Samsunspor</t>
   </si>
   <si>
-    <t>Legion</t>
-  </si>
-  <si>
-    <t>Tallinna FC Levadia U21</t>
-  </si>
-  <si>
-    <t>AEK Larnaca</t>
+    <t>Randers</t>
   </si>
   <si>
     <t>Wisła Płock</t>
   </si>
   <si>
-    <t>Randers</t>
-  </si>
-  <si>
     <t>CFR Cluj</t>
   </si>
   <si>
     <t>Hapoel Tel Aviv</t>
   </si>
   <si>
+    <t>Almere City</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>NAC Breda</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
     <t>Universitario de Vinto</t>
   </si>
   <si>
-    <t>Almere City</t>
-  </si>
-  <si>
-    <t>Eindhoven</t>
-  </si>
-  <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
-    <t>NAC Breda</t>
-  </si>
-  <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
-    <t>West Bromwich Albion U21</t>
-  </si>
-  <si>
-    <t>Manchester United U21</t>
-  </si>
-  <si>
     <t>The New Saints</t>
   </si>
   <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
     <t>Metz</t>
   </si>
   <si>
     <t>Crusaders</t>
   </si>
   <si>
-    <t>AC Milan</t>
+    <t>Racing Santander</t>
+  </si>
+  <si>
+    <t>Girona FC</t>
   </si>
   <si>
     <t>Versailles</t>
@@ -424,51 +418,45 @@
     <t>San Telmo</t>
   </si>
   <si>
-    <t>Racing Santander</t>
-  </si>
-  <si>
-    <t>Girona FC</t>
-  </si>
-  <si>
     <t>River Plate</t>
   </si>
   <si>
     <t>Famalicão</t>
   </si>
   <si>
+    <t>Universitario Popayán</t>
+  </si>
+  <si>
+    <t>Palestino</t>
+  </si>
+  <si>
     <t>Sportivo Ameliano</t>
   </si>
   <si>
-    <t>Palestino</t>
-  </si>
-  <si>
-    <t>Universitario Popayán</t>
-  </si>
-  <si>
     <t>Defensor Sporting</t>
   </si>
   <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Deportivo Binacional</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>El Geish</t>
+  </si>
+  <si>
     <t>Al Masry</t>
   </si>
   <si>
-    <t>El Geish</t>
-  </si>
-  <si>
     <t>Pyramids FC</t>
   </si>
   <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>Deportivo Binacional</t>
-  </si>
-  <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
     <t>Deportes Quindío</t>
   </si>
   <si>
@@ -481,6 +469,9 @@
     <t>Audax Italiano</t>
   </si>
   <si>
+    <t>Municipal Vinto</t>
+  </si>
+  <si>
     <t>Democrata GV</t>
   </si>
   <si>
@@ -574,76 +565,76 @@
     <t>Olympiakos</t>
   </si>
   <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Elva</t>
+  </si>
+  <si>
+    <t>Paide Linnameeskond U21</t>
+  </si>
+  <si>
     <t>Górnik Łęczna</t>
   </si>
   <si>
+    <t>Altay</t>
+  </si>
+  <si>
     <t>Sivasspor</t>
   </si>
   <si>
-    <t>Altay</t>
-  </si>
-  <si>
     <t>Bandırmaspor</t>
   </si>
   <si>
-    <t>Paide Linnameeskond U21</t>
-  </si>
-  <si>
-    <t>Elva</t>
-  </si>
-  <si>
-    <t>Apollon</t>
+    <t>AGF</t>
   </si>
   <si>
     <t>Widzew Łódź</t>
   </si>
   <si>
-    <t>AGF</t>
-  </si>
-  <si>
     <t>Universitatea Cluj</t>
   </si>
   <si>
     <t>Maccabi Haifa</t>
   </si>
   <si>
+    <t>VVV</t>
+  </si>
+  <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>PEC Zwolle</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
     <t>Vaca Díez</t>
   </si>
   <si>
-    <t>VVV</t>
-  </si>
-  <si>
-    <t>ADO Den Haag</t>
-  </si>
-  <si>
-    <t>PEC Zwolle</t>
-  </si>
-  <si>
-    <t>Ajax II</t>
-  </si>
-  <si>
-    <t>AZ II</t>
-  </si>
-  <si>
-    <t>PSV II</t>
-  </si>
-  <si>
-    <t>Leeds United U21</t>
-  </si>
-  <si>
-    <t>Leicester City U21</t>
-  </si>
-  <si>
     <t>Bala Town</t>
   </si>
   <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
     <t>Le Havre</t>
   </si>
   <si>
     <t>Cliftonville</t>
   </si>
   <si>
-    <t>Salernitana</t>
+    <t>SD Huesca</t>
+  </si>
+  <si>
+    <t>Atlético Madrid</t>
   </si>
   <si>
     <t>Bastia-Borgo</t>
@@ -652,51 +643,45 @@
     <t>San Martín Tucumán</t>
   </si>
   <si>
-    <t>SD Huesca</t>
-  </si>
-  <si>
-    <t>Atlético Madrid</t>
-  </si>
-  <si>
     <t>Deportivo Maldonado</t>
   </si>
   <si>
     <t>Casa Pia</t>
   </si>
   <si>
+    <t>Orsomarso</t>
+  </si>
+  <si>
+    <t>Magallanes</t>
+  </si>
+  <si>
     <t>Sportivo Trinidense</t>
   </si>
   <si>
-    <t>Magallanes</t>
-  </si>
-  <si>
-    <t>Orsomarso</t>
-  </si>
-  <si>
     <t>Liverpool FC Montevideo</t>
   </si>
   <si>
+    <t>Grêmio W</t>
+  </si>
+  <si>
+    <t>Universitario</t>
+  </si>
+  <si>
+    <t>El Daklyeh FC</t>
+  </si>
+  <si>
+    <t>Água Santa</t>
+  </si>
+  <si>
+    <t>Al Ahly</t>
+  </si>
+  <si>
     <t>Zamalek</t>
   </si>
   <si>
-    <t>Al Ahly</t>
-  </si>
-  <si>
     <t>Haras El Hodood</t>
   </si>
   <si>
-    <t>El Daklyeh FC</t>
-  </si>
-  <si>
-    <t>Universitario</t>
-  </si>
-  <si>
-    <t>Grêmio W</t>
-  </si>
-  <si>
-    <t>Água Santa</t>
-  </si>
-  <si>
     <t>Patriotas Boyacá</t>
   </si>
   <si>
@@ -707,6 +692,9 @@
   </si>
   <si>
     <t>O'Higgins</t>
+  </si>
+  <si>
+    <t>Blooming</t>
   </si>
   <si>
     <t>Villa Nova</t>
@@ -1080,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F2">
         <v>1.55</v>
@@ -1255,10 +1243,10 @@
         <v>2.55</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1305,10 +1293,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F3">
         <v>1.3</v>
@@ -1409,10 +1397,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F4">
         <v>2.23</v>
@@ -1463,10 +1451,10 @@
         <v>1.57</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W4">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
         <v>1.7</v>
@@ -1513,10 +1501,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F5">
         <v>2.9</v>
@@ -1567,10 +1555,10 @@
         <v>1.4</v>
       </c>
       <c r="V5">
+        <v>1.5</v>
+      </c>
+      <c r="W5">
         <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1.5</v>
       </c>
       <c r="X5">
         <v>2.03</v>
@@ -1617,10 +1605,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1671,10 +1659,10 @@
         <v>1.91</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>1.97</v>
@@ -1721,10 +1709,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F7">
         <v>2.38</v>
@@ -1775,10 +1763,10 @@
         <v>1.53</v>
       </c>
       <c r="V7">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="W7">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="X7">
         <v>1.94</v>
@@ -1825,10 +1813,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F8">
         <v>1.85</v>
@@ -1879,10 +1867,10 @@
         <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="W8">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="X8">
         <v>1.98</v>
@@ -1929,10 +1917,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F9">
         <v>2.12</v>
@@ -1983,10 +1971,10 @@
         <v>1.7</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W9">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="X9">
         <v>2.08</v>
@@ -2033,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F10">
         <v>1.4</v>
@@ -2090,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X10">
         <v>1.38</v>
@@ -2137,10 +2125,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F11">
         <v>2.05</v>
@@ -2191,10 +2179,10 @@
         <v>1.78</v>
       </c>
       <c r="V11">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W11">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="X11">
         <v>1.45</v>
@@ -2241,10 +2229,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F12">
         <v>1.96</v>
@@ -2268,10 +2256,10 @@
         <v>4</v>
       </c>
       <c r="M12">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="N12">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O12">
         <v>1.33</v>
@@ -2295,10 +2283,10 @@
         <v>1.87</v>
       </c>
       <c r="V12">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="W12">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="X12">
         <v>1.49</v>
@@ -2345,19 +2333,19 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F13">
-        <v>2.49</v>
+        <v>2.3</v>
       </c>
       <c r="G13">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="H13">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
       <c r="I13">
         <v>1.11</v>
@@ -2366,16 +2354,16 @@
         <v>5.3</v>
       </c>
       <c r="K13">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="L13">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="M13">
-        <v>3.02</v>
+        <v>3.6</v>
       </c>
       <c r="N13">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="O13">
         <v>1.65</v>
@@ -2384,10 +2372,10 @@
         <v>2.11</v>
       </c>
       <c r="Q13">
-        <v>2.35</v>
+        <v>2.51</v>
       </c>
       <c r="R13">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S13">
         <v>1.27</v>
@@ -2399,10 +2387,10 @@
         <v>1.56</v>
       </c>
       <c r="V13">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="W13">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="X13">
         <v>0.86</v>
@@ -2449,19 +2437,19 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F14">
-        <v>2.76</v>
+        <v>2.63</v>
       </c>
       <c r="G14">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="H14">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="I14">
         <v>1.1</v>
@@ -2470,16 +2458,16 @@
         <v>5.35</v>
       </c>
       <c r="K14">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="L14">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="M14">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="N14">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="O14">
         <v>1.64</v>
@@ -2488,10 +2476,10 @@
         <v>2.13</v>
       </c>
       <c r="Q14">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R14">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S14">
         <v>1.36</v>
@@ -2503,10 +2491,10 @@
         <v>1.43</v>
       </c>
       <c r="V14">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="W14">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
         <v>0.99</v>
@@ -2553,10 +2541,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F15">
         <v>1.41</v>
@@ -2607,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="X15">
         <v>1.37</v>
@@ -2657,19 +2645,19 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F16">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="G16">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="H16">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>1.1</v>
@@ -2681,13 +2669,13 @@
         <v>1.5</v>
       </c>
       <c r="L16">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="M16">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="N16">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="O16">
         <v>1.52</v>
@@ -2696,7 +2684,7 @@
         <v>2.2</v>
       </c>
       <c r="Q16">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R16">
         <v>1.7</v>
@@ -2711,10 +2699,10 @@
         <v>1.47</v>
       </c>
       <c r="V16">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X16">
         <v>1.43</v>
@@ -2761,10 +2749,10 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F17">
         <v>1.61</v>
@@ -2815,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="W17">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>1.2</v>
@@ -2865,19 +2853,19 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F18">
-        <v>6.07</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>3.33</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="I18">
         <v>1.07</v>
@@ -2892,22 +2880,22 @@
         <v>2.78</v>
       </c>
       <c r="M18">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="N18">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="Q18">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="R18">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="S18">
         <v>2.35</v>
@@ -2919,10 +2907,10 @@
         <v>1.12</v>
       </c>
       <c r="V18">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="W18">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X18">
         <v>1.42</v>
@@ -2969,19 +2957,19 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F19">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="G19">
-        <v>3.29</v>
+        <v>3.25</v>
       </c>
       <c r="H19">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>1.06</v>
@@ -2996,22 +2984,22 @@
         <v>2.93</v>
       </c>
       <c r="M19">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="N19">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R19">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
         <v>1.2</v>
@@ -3023,10 +3011,10 @@
         <v>1.95</v>
       </c>
       <c r="V19">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="W19">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="X19">
         <v>1.72</v>
@@ -3073,19 +3061,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F20">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G20">
-        <v>3.21</v>
+        <v>3.4</v>
       </c>
       <c r="H20">
-        <v>2.67</v>
+        <v>3.25</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -3100,10 +3088,10 @@
         <v>3.74</v>
       </c>
       <c r="M20">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N20">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="O20">
         <v>1.39</v>
@@ -3127,10 +3115,10 @@
         <v>1.74</v>
       </c>
       <c r="V20">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="W20">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X20">
         <v>1.9</v>
@@ -3177,19 +3165,19 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="G21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H21">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>1.06</v>
@@ -3204,10 +3192,10 @@
         <v>3.5</v>
       </c>
       <c r="M21">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
         <v>1.36</v>
@@ -3216,10 +3204,10 @@
         <v>3</v>
       </c>
       <c r="Q21">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S21">
         <v>1.33</v>
@@ -3231,10 +3219,10 @@
         <v>1.65</v>
       </c>
       <c r="V21">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>1.58</v>
@@ -3246,28 +3234,28 @@
         <v>2.92</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -3281,19 +3269,19 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F22">
+        <v>3.91</v>
+      </c>
+      <c r="G22">
         <v>3.2</v>
       </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
       <c r="H22">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="I22">
         <v>1.08</v>
@@ -3308,10 +3296,10 @@
         <v>2.84</v>
       </c>
       <c r="M22">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="N22">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="O22">
         <v>1.5</v>
@@ -3335,10 +3323,10 @@
         <v>1.32</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="X22">
         <v>1.31</v>
@@ -3350,28 +3338,28 @@
         <v>2.73</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -3385,10 +3373,10 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F23">
         <v>2.6</v>
@@ -3439,7 +3427,7 @@
         <v>1.47</v>
       </c>
       <c r="V23">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W23">
         <v>1</v>
@@ -3489,19 +3477,19 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F24">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="G24">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H24">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I24">
         <v>1.05</v>
@@ -3543,10 +3531,10 @@
         <v>2.12</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="W24">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="X24">
         <v>1.71</v>
@@ -3558,28 +3546,28 @@
         <v>2.91</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -3593,37 +3581,37 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F25">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="G25">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="H25">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="N25">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O25">
         <v>1.37</v>
@@ -3632,25 +3620,25 @@
         <v>2.99</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="V25">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="W25">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X25">
         <v>1.34</v>
@@ -3671,19 +3659,19 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3697,64 +3685,64 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F26">
-        <v>2.13</v>
+        <v>2.6</v>
       </c>
       <c r="G26">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M26">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="N26">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="V26">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X26">
         <v>0.93</v>
@@ -3798,596 +3786,596 @@
         <v>44998.54166666666</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F27">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="H27">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="I27">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="K27">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="L27">
-        <v>2.55</v>
+        <v>2.84</v>
       </c>
       <c r="M27">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N27">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="O27">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P27">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q27">
         <v>2.05</v>
       </c>
       <c r="R27">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="S27">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="U27">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="V27">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W27">
         <v>1.36</v>
       </c>
       <c r="X27">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="Y27">
-        <v>1.13</v>
+        <v>1.51</v>
       </c>
       <c r="Z27">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AD27">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AE27">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="AF27">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="AG27">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="AH27">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2">
         <v>44998.54166666666</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F28">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="G28">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="H28">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I28">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="J28">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="L28">
-        <v>2.74</v>
+        <v>2.55</v>
       </c>
       <c r="M28">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N28">
+        <v>1.52</v>
+      </c>
+      <c r="O28">
+        <v>1.53</v>
+      </c>
+      <c r="P28">
+        <v>2.38</v>
+      </c>
+      <c r="Q28">
+        <v>2.05</v>
+      </c>
+      <c r="R28">
+        <v>1.72</v>
+      </c>
+      <c r="S28">
+        <v>1.25</v>
+      </c>
+      <c r="T28">
+        <v>1.35</v>
+      </c>
+      <c r="U28">
         <v>1.57</v>
       </c>
-      <c r="O28">
-        <v>1.5</v>
-      </c>
-      <c r="P28">
-        <v>2.45</v>
-      </c>
-      <c r="Q28">
-        <v>2.1</v>
-      </c>
-      <c r="R28">
-        <v>1.67</v>
-      </c>
-      <c r="S28">
-        <v>1.22</v>
-      </c>
-      <c r="T28">
-        <v>1.28</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
       <c r="V28">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W28">
-        <v>0.62</v>
+        <v>1.36</v>
       </c>
       <c r="X28">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="Y28">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="Z28">
-        <v>2.48</v>
+        <v>2.71</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="29" spans="1:34">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2">
         <v>44998.54166666666</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="F29">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="G29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H29">
-        <v>1.89</v>
+        <v>4.5</v>
       </c>
       <c r="I29">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="J29">
-        <v>6.75</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K29">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="M29">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="N29">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O29">
         <v>1.5</v>
       </c>
       <c r="P29">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="Q29">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R29">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.22</v>
       </c>
       <c r="T29">
+        <v>1.28</v>
+      </c>
+      <c r="U29">
+        <v>1.9</v>
+      </c>
+      <c r="V29">
+        <v>1.35</v>
+      </c>
+      <c r="W29">
+        <v>0.7</v>
+      </c>
+      <c r="X29">
+        <v>1.42</v>
+      </c>
+      <c r="Y29">
+        <v>1.06</v>
+      </c>
+      <c r="Z29">
+        <v>2.48</v>
+      </c>
+      <c r="AA29">
+        <v>1.42</v>
+      </c>
+      <c r="AB29">
+        <v>7.5</v>
+      </c>
+      <c r="AC29">
+        <v>3.96</v>
+      </c>
+      <c r="AD29">
         <v>1.33</v>
       </c>
-      <c r="U29">
-        <v>1.21</v>
-      </c>
-      <c r="V29">
-        <v>1.11</v>
-      </c>
-      <c r="W29">
-        <v>1.5</v>
-      </c>
-      <c r="X29">
-        <v>1.39</v>
-      </c>
-      <c r="Y29">
-        <v>1.51</v>
-      </c>
-      <c r="Z29">
-        <v>2.9</v>
-      </c>
-      <c r="AA29">
-        <v>2.93</v>
-      </c>
-      <c r="AB29">
-        <v>7.1</v>
-      </c>
-      <c r="AC29">
-        <v>1.62</v>
-      </c>
-      <c r="AD29">
-        <v>1.36</v>
-      </c>
       <c r="AE29">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AF29">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AG29">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="AH29">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="30" spans="1:34">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2">
         <v>44998.58333333334</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F30">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I30">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="J30">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K30">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M30">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="N30">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="O30">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="Q30">
+        <v>1.91</v>
+      </c>
+      <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30">
+        <v>1.18</v>
+      </c>
+      <c r="T30">
+        <v>1.26</v>
+      </c>
+      <c r="U30">
         <v>1.83</v>
       </c>
-      <c r="R30">
-        <v>1.83</v>
-      </c>
-      <c r="S30">
-        <v>1.11</v>
-      </c>
-      <c r="T30">
-        <v>1.18</v>
-      </c>
-      <c r="U30">
-        <v>2.3</v>
-      </c>
       <c r="V30">
-        <v>1.18</v>
+        <v>2.11</v>
       </c>
       <c r="W30">
-        <v>0.55</v>
+        <v>1.81</v>
       </c>
       <c r="X30">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="Y30">
-        <v>1.21</v>
+        <v>1.79</v>
       </c>
       <c r="Z30">
-        <v>3.12</v>
+        <v>3.78</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="31" spans="1:34">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2">
         <v>44998.58333333334</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F31">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="G31">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H31">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="I31">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="J31">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="K31">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M31">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="N31">
-        <v>1.84</v>
+        <v>2.4</v>
       </c>
       <c r="O31">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="P31">
+        <v>3.74</v>
+      </c>
+      <c r="Q31">
+        <v>1.53</v>
+      </c>
+      <c r="R31">
+        <v>2.41</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>1.15</v>
+      </c>
+      <c r="U31">
+        <v>1.17</v>
+      </c>
+      <c r="V31">
         <v>3</v>
       </c>
-      <c r="Q31">
-        <v>1.68</v>
-      </c>
-      <c r="R31">
-        <v>2.1</v>
-      </c>
-      <c r="S31">
-        <v>1.58</v>
-      </c>
-      <c r="T31">
-        <v>1.32</v>
-      </c>
-      <c r="U31">
-        <v>1.4</v>
-      </c>
-      <c r="V31">
-        <v>0.8</v>
-      </c>
       <c r="W31">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>1.2</v>
+        <v>2.36</v>
       </c>
       <c r="Y31">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="Z31">
-        <v>2.67</v>
+        <v>3.59</v>
       </c>
       <c r="AA31">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:34">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2">
         <v>44998.58333333334</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F32">
-        <v>1.38</v>
+        <v>2.04</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H32">
-        <v>5.8</v>
+        <v>2.81</v>
       </c>
       <c r="I32">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="J32">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K32">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="M32">
-        <v>1.87</v>
+        <v>1.23</v>
       </c>
       <c r="N32">
-        <v>1.9</v>
+        <v>3.16</v>
       </c>
       <c r="O32">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="Q32">
-        <v>1.97</v>
+        <v>1.29</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>3.48</v>
       </c>
       <c r="S32">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="T32">
         <v>1.2</v>
       </c>
       <c r="U32">
-        <v>2.57</v>
+        <v>1.83</v>
       </c>
       <c r="V32">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="W32">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="Y32">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>2.9</v>
+        <v>2.11</v>
       </c>
       <c r="AA32">
         <v>0</v>
@@ -4399,13 +4387,13 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -4416,210 +4404,210 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2">
         <v>44998.58333333334</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F33">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="G33">
         <v>3.6</v>
       </c>
       <c r="H33">
-        <v>3.78</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="J33">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K33">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="L33">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
+        <v>1.85</v>
+      </c>
+      <c r="N33">
         <v>1.9</v>
       </c>
-      <c r="N33">
-        <v>1.87</v>
-      </c>
       <c r="O33">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="R33">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="S33">
+        <v>1.11</v>
+      </c>
+      <c r="T33">
         <v>1.18</v>
       </c>
-      <c r="T33">
-        <v>1.22</v>
-      </c>
       <c r="U33">
-        <v>2.09</v>
+        <v>2.3</v>
       </c>
       <c r="V33">
-        <v>2.25</v>
+        <v>1.08</v>
       </c>
       <c r="W33">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="X33">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="Y33">
-        <v>1.74</v>
+        <v>1.21</v>
       </c>
       <c r="Z33">
-        <v>3.7</v>
+        <v>3.12</v>
       </c>
       <c r="AA33">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AB33">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="AC33">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="AD33">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>1.72</v>
+        <v>1.27</v>
       </c>
       <c r="AF33">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="AG33">
-        <v>2.98</v>
+        <v>1.88</v>
       </c>
       <c r="AH33">
-        <v>4.1</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2">
         <v>44998.58333333334</v>
       </c>
       <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34">
+        <v>1.44</v>
+      </c>
+      <c r="G34">
+        <v>4.33</v>
+      </c>
+      <c r="H34">
+        <v>7.5</v>
+      </c>
+      <c r="I34">
+        <v>1.03</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>1.28</v>
+      </c>
+      <c r="L34">
+        <v>3.75</v>
+      </c>
+      <c r="M34">
+        <v>1.87</v>
+      </c>
+      <c r="N34">
+        <v>1.9</v>
+      </c>
+      <c r="O34">
+        <v>1.34</v>
+      </c>
+      <c r="P34">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="H34">
-        <v>2.75</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>1.3</v>
-      </c>
-      <c r="N34">
-        <v>3.5</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="V34">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X34">
-        <v>2.11</v>
+        <v>1.86</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Z34">
-        <v>2.11</v>
+        <v>2.9</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="35" spans="1:34">
@@ -4630,120 +4618,120 @@
         <v>44998.58333333334</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F35">
-        <v>1.64</v>
+        <v>3.25</v>
       </c>
       <c r="G35">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="H35">
-        <v>4.2</v>
+        <v>2.08</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
-        <v>2.36</v>
+        <v>1.2</v>
       </c>
       <c r="Y35">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="Z35">
-        <v>3.59</v>
+        <v>2.67</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="36" spans="1:34">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2">
         <v>44998.58333333334</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G36">
         <v>3.5</v>
@@ -4755,79 +4743,79 @@
         <v>1.02</v>
       </c>
       <c r="J36">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="K36">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="L36">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M36">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="N36">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="O36">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="P36">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="Q36">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="S36">
         <v>1.18</v>
       </c>
       <c r="T36">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="U36">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="V36">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="W36">
-        <v>1.76</v>
+        <v>1.23</v>
       </c>
       <c r="X36">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="Y36">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="Z36">
-        <v>3.78</v>
+        <v>3.7</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="37" spans="1:34">
@@ -4838,100 +4826,100 @@
         <v>44998.625</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F37">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="G37">
         <v>3.3</v>
       </c>
       <c r="H37">
-        <v>2.45</v>
+        <v>2.95</v>
       </c>
       <c r="I37">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="J37">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="K37">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="M37">
+        <v>2.01</v>
+      </c>
+      <c r="N37">
+        <v>1.81</v>
+      </c>
+      <c r="O37">
+        <v>1.5</v>
+      </c>
+      <c r="P37">
+        <v>2.5</v>
+      </c>
+      <c r="Q37">
         <v>1.95</v>
       </c>
-      <c r="N37">
+      <c r="R37">
         <v>1.8</v>
       </c>
-      <c r="O37">
-        <v>1.4</v>
-      </c>
-      <c r="P37">
-        <v>2.75</v>
-      </c>
-      <c r="Q37">
-        <v>1.75</v>
-      </c>
-      <c r="R37">
-        <v>2</v>
-      </c>
       <c r="S37">
+        <v>1.38</v>
+      </c>
+      <c r="T37">
+        <v>1.35</v>
+      </c>
+      <c r="U37">
+        <v>1.52</v>
+      </c>
+      <c r="V37">
+        <v>1.55</v>
+      </c>
+      <c r="W37">
+        <v>1.55</v>
+      </c>
+      <c r="X37">
+        <v>1.72</v>
+      </c>
+      <c r="Y37">
         <v>1.5</v>
-      </c>
-      <c r="T37">
-        <v>1.32</v>
-      </c>
-      <c r="U37">
-        <v>1.42</v>
-      </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
-      <c r="W37">
-        <v>1.64</v>
-      </c>
-      <c r="X37">
-        <v>1.63</v>
-      </c>
-      <c r="Y37">
-        <v>1.59</v>
       </c>
       <c r="Z37">
         <v>3.22</v>
       </c>
       <c r="AA37">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="AB37">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC37">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="AD37">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AE37">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AF37">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="AG37">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="AH37">
-        <v>2.49</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="38" spans="1:34">
@@ -4942,100 +4930,100 @@
         <v>44998.625</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F38">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="G38">
         <v>3.3</v>
       </c>
       <c r="H38">
-        <v>2.95</v>
+        <v>2.45</v>
       </c>
       <c r="I38">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J38">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="K38">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="L38">
+        <v>3.3</v>
+      </c>
+      <c r="M38">
+        <v>1.95</v>
+      </c>
+      <c r="N38">
+        <v>1.8</v>
+      </c>
+      <c r="O38">
+        <v>1.4</v>
+      </c>
+      <c r="P38">
         <v>2.75</v>
       </c>
-      <c r="M38">
-        <v>2.01</v>
-      </c>
-      <c r="N38">
-        <v>1.81</v>
-      </c>
-      <c r="O38">
+      <c r="Q38">
+        <v>1.75</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
         <v>1.5</v>
       </c>
-      <c r="P38">
-        <v>2.5</v>
-      </c>
-      <c r="Q38">
-        <v>1.95</v>
-      </c>
-      <c r="R38">
-        <v>1.8</v>
-      </c>
-      <c r="S38">
-        <v>1.38</v>
-      </c>
       <c r="T38">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="U38">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="V38">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="W38">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="X38">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="Y38">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="Z38">
         <v>3.22</v>
       </c>
       <c r="AA38">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="AB38">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC38">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="AD38">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AE38">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AF38">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="AG38">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="AH38">
-        <v>2.93</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="39" spans="1:34">
@@ -5049,10 +5037,10 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F39">
         <v>1.55</v>
@@ -5103,10 +5091,10 @@
         <v>2.15</v>
       </c>
       <c r="V39">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="W39">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="X39">
         <v>1.86</v>
@@ -5153,19 +5141,19 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="G40">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H40">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="I40">
         <v>1.03</v>
@@ -5180,10 +5168,10 @@
         <v>3.83</v>
       </c>
       <c r="M40">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="N40">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O40">
         <v>1.31</v>
@@ -5192,10 +5180,10 @@
         <v>3.26</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="R40">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S40">
         <v>2.91</v>
@@ -5207,10 +5195,10 @@
         <v>1.06</v>
       </c>
       <c r="V40">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="W40">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="X40">
         <v>1.44</v>
@@ -5222,13 +5210,13 @@
         <v>3.41</v>
       </c>
       <c r="AA40">
-        <v>4.46</v>
+        <v>4.56</v>
       </c>
       <c r="AB40">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC40">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AD40">
         <v>1.29</v>
@@ -5237,7 +5225,7 @@
         <v>1.54</v>
       </c>
       <c r="AF40">
-        <v>1.89</v>
+        <v>2.38</v>
       </c>
       <c r="AG40">
         <v>2.37</v>
@@ -5254,105 +5242,105 @@
         <v>44998.66666666666</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F41">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>4.95</v>
+        <v>4.33</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="J41">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="K41">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="L41">
-        <v>3.84</v>
+        <v>4.2</v>
       </c>
       <c r="M41">
+        <v>1.7</v>
+      </c>
+      <c r="N41">
+        <v>2.1</v>
+      </c>
+      <c r="O41">
+        <v>1.32</v>
+      </c>
+      <c r="P41">
+        <v>3.22</v>
+      </c>
+      <c r="Q41">
+        <v>1.67</v>
+      </c>
+      <c r="R41">
+        <v>2.14</v>
+      </c>
+      <c r="S41">
+        <v>1.22</v>
+      </c>
+      <c r="T41">
+        <v>1.25</v>
+      </c>
+      <c r="U41">
+        <v>2.06</v>
+      </c>
+      <c r="V41">
         <v>1.71</v>
       </c>
-      <c r="N41">
-        <v>2.06</v>
-      </c>
-      <c r="O41">
-        <v>1.33</v>
-      </c>
-      <c r="P41">
-        <v>3.25</v>
-      </c>
-      <c r="Q41">
-        <v>1.8</v>
-      </c>
-      <c r="R41">
-        <v>1.91</v>
-      </c>
-      <c r="S41">
-        <v>1.15</v>
-      </c>
-      <c r="T41">
-        <v>1.22</v>
-      </c>
-      <c r="U41">
-        <v>2.33</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
       <c r="W41">
-        <v>0.5</v>
+        <v>2.07</v>
       </c>
       <c r="X41">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="Y41">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="Z41">
-        <v>2.77</v>
+        <v>2.99</v>
       </c>
       <c r="AA41">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AB41">
-        <v>8.6</v>
+        <v>6.75</v>
       </c>
       <c r="AC41">
-        <v>3.94</v>
+        <v>4.05</v>
       </c>
       <c r="AD41">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AE41">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AF41">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="AG41">
-        <v>2.45</v>
+        <v>1.96</v>
       </c>
       <c r="AH41">
-        <v>3.42</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2">
         <v>44998.66666666666</v>
@@ -5361,25 +5349,25 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="I42">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K42">
         <v>1.22</v>
@@ -5388,75 +5376,75 @@
         <v>4.2</v>
       </c>
       <c r="M42">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="N42">
         <v>2.1</v>
       </c>
       <c r="O42">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P42">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="Q42">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R42">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="S42">
+        <v>1.33</v>
+      </c>
+      <c r="T42">
+        <v>1.29</v>
+      </c>
+      <c r="U42">
+        <v>1.73</v>
+      </c>
+      <c r="V42">
+        <v>1.87</v>
+      </c>
+      <c r="W42">
+        <v>1.33</v>
+      </c>
+      <c r="X42">
+        <v>1.24</v>
+      </c>
+      <c r="Y42">
+        <v>1.5</v>
+      </c>
+      <c r="Z42">
+        <v>2.74</v>
+      </c>
+      <c r="AA42">
+        <v>1.68</v>
+      </c>
+      <c r="AB42">
+        <v>6</v>
+      </c>
+      <c r="AC42">
+        <v>2.5</v>
+      </c>
+      <c r="AD42">
         <v>1.22</v>
       </c>
-      <c r="T42">
-        <v>1.25</v>
-      </c>
-      <c r="U42">
-        <v>2.06</v>
-      </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
-      <c r="W42">
-        <v>2</v>
-      </c>
-      <c r="X42">
-        <v>1.48</v>
-      </c>
-      <c r="Y42">
-        <v>1.51</v>
-      </c>
-      <c r="Z42">
-        <v>2.99</v>
-      </c>
-      <c r="AA42">
-        <v>1.28</v>
-      </c>
-      <c r="AB42">
-        <v>6.75</v>
-      </c>
-      <c r="AC42">
-        <v>4.05</v>
-      </c>
-      <c r="AD42">
-        <v>1.18</v>
-      </c>
       <c r="AE42">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="AF42">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="AG42">
-        <v>1.96</v>
+        <v>2.24</v>
       </c>
       <c r="AH42">
-        <v>2.42</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2">
         <v>44998.66666666666</v>
@@ -5465,19 +5453,19 @@
         <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H43">
-        <v>3.25</v>
+        <v>1.9</v>
       </c>
       <c r="I43">
         <v>1.03</v>
@@ -5489,78 +5477,78 @@
         <v>1.22</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="N43">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O43">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P43">
-        <v>3.14</v>
+        <v>3.05</v>
       </c>
       <c r="Q43">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R43">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="S43">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="T43">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U43">
-        <v>1.73</v>
+        <v>1.28</v>
       </c>
       <c r="V43">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="W43">
-        <v>1.36</v>
+        <v>2.27</v>
       </c>
       <c r="X43">
-        <v>1.24</v>
+        <v>1.84</v>
       </c>
       <c r="Y43">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="Z43">
-        <v>2.74</v>
+        <v>3.75</v>
       </c>
       <c r="AA43">
-        <v>1.68</v>
+        <v>2.7</v>
       </c>
       <c r="AB43">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AC43">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD43">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AE43">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AF43">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AG43">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="AH43">
-        <v>3.08</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="44" spans="1:34">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2">
         <v>44998.66666666666</v>
@@ -5569,94 +5557,94 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F44">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="G44">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H44">
-        <v>1.9</v>
+        <v>3.05</v>
       </c>
       <c r="I44">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J44">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K44">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M44">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="N44">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O44">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="P44">
-        <v>3.05</v>
+        <v>3.64</v>
       </c>
       <c r="Q44">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="R44">
-        <v>2.14</v>
+        <v>2.6</v>
       </c>
       <c r="S44">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
       <c r="T44">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="U44">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="V44">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="W44">
-        <v>2.21</v>
+        <v>0.93</v>
       </c>
       <c r="X44">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="Y44">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="Z44">
-        <v>3.75</v>
+        <v>3.22</v>
       </c>
       <c r="AA44">
-        <v>2.7</v>
+        <v>1.51</v>
       </c>
       <c r="AB44">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AC44">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AD44">
         <v>1.25</v>
       </c>
       <c r="AE44">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AF44">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AG44">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="AH44">
         <v>3.28</v>
@@ -5664,7 +5652,7 @@
     </row>
     <row r="45" spans="1:34">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2">
         <v>44998.66666666666</v>
@@ -5673,102 +5661,102 @@
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F45">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="G45">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H45">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J45">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K45">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="L45">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M45">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N45">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="P45">
-        <v>3.64</v>
+        <v>3.1</v>
       </c>
       <c r="Q45">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="R45">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="S45">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="T45">
         <v>1.26</v>
       </c>
       <c r="U45">
-        <v>1.72</v>
+        <v>2.01</v>
       </c>
       <c r="V45">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="W45">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="X45">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Y45">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="Z45">
-        <v>3.22</v>
+        <v>3.02</v>
       </c>
       <c r="AA45">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="AB45">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="AC45">
-        <v>3</v>
+        <v>4.05</v>
       </c>
       <c r="AD45">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AE45">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="AF45">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AG45">
-        <v>2.36</v>
+        <v>2.09</v>
       </c>
       <c r="AH45">
-        <v>3.28</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="46" spans="1:34">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2">
         <v>44998.66666666666</v>
@@ -5777,97 +5765,97 @@
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F46">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="G46">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>2.67</v>
       </c>
       <c r="I46">
         <v>1.03</v>
       </c>
       <c r="J46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K46">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="L46">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M46">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N46">
         <v>2</v>
       </c>
       <c r="O46">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="Q46">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="R46">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="S46">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="T46">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="U46">
-        <v>2.01</v>
+        <v>1.57</v>
       </c>
       <c r="V46">
-        <v>1.43</v>
+        <v>0.8</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X46">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="Y46">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="Z46">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="AA46">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AB46">
-        <v>6.75</v>
+        <v>5.75</v>
       </c>
       <c r="AC46">
-        <v>4.05</v>
+        <v>2.5</v>
       </c>
       <c r="AD46">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AE46">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="AF46">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AG46">
-        <v>2.09</v>
+        <v>2.32</v>
       </c>
       <c r="AH46">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="47" spans="1:34">
@@ -5878,100 +5866,100 @@
         <v>44998.66666666666</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F47">
-        <v>2.32</v>
+        <v>1.55</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H47">
-        <v>2.67</v>
+        <v>5</v>
       </c>
       <c r="I47">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="K47">
+        <v>1.2</v>
+      </c>
+      <c r="L47">
+        <v>3.84</v>
+      </c>
+      <c r="M47">
+        <v>1.72</v>
+      </c>
+      <c r="N47">
+        <v>2.05</v>
+      </c>
+      <c r="O47">
+        <v>1.33</v>
+      </c>
+      <c r="P47">
+        <v>3.25</v>
+      </c>
+      <c r="Q47">
+        <v>1.8</v>
+      </c>
+      <c r="R47">
+        <v>1.91</v>
+      </c>
+      <c r="S47">
+        <v>1.15</v>
+      </c>
+      <c r="T47">
         <v>1.22</v>
       </c>
-      <c r="L47">
-        <v>3.9</v>
-      </c>
-      <c r="M47">
-        <v>1.7</v>
-      </c>
-      <c r="N47">
-        <v>2</v>
-      </c>
-      <c r="O47">
-        <v>1.32</v>
-      </c>
-      <c r="P47">
-        <v>3.22</v>
-      </c>
-      <c r="Q47">
-        <v>1.57</v>
-      </c>
-      <c r="R47">
-        <v>2.34</v>
-      </c>
-      <c r="S47">
-        <v>1.45</v>
-      </c>
-      <c r="T47">
-        <v>1.28</v>
-      </c>
       <c r="U47">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="V47">
-        <v>0.86</v>
+        <v>1.67</v>
       </c>
       <c r="W47">
-        <v>1.07</v>
+        <v>0.33</v>
       </c>
       <c r="X47">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="Y47">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="Z47">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="AA47">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="AB47">
-        <v>5.75</v>
+        <v>8.6</v>
       </c>
       <c r="AC47">
-        <v>2.5</v>
+        <v>3.94</v>
       </c>
       <c r="AD47">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AE47">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AF47">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AG47">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="AH47">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="48" spans="1:34">
@@ -5979,103 +5967,103 @@
         <v>63</v>
       </c>
       <c r="B48" s="2">
-        <v>44998.66666666666</v>
+        <v>44998.6875</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F48">
+        <v>1.26</v>
+      </c>
+      <c r="G48">
+        <v>5.8</v>
+      </c>
+      <c r="H48">
+        <v>9.6</v>
+      </c>
+      <c r="I48">
+        <v>1.02</v>
+      </c>
+      <c r="J48">
+        <v>21</v>
+      </c>
+      <c r="K48">
+        <v>1.16</v>
+      </c>
+      <c r="L48">
+        <v>4.75</v>
+      </c>
+      <c r="M48">
+        <v>1.47</v>
+      </c>
+      <c r="N48">
+        <v>2.39</v>
+      </c>
+      <c r="O48">
+        <v>1.26</v>
+      </c>
+      <c r="P48">
+        <v>3.5</v>
+      </c>
+      <c r="Q48">
+        <v>1.95</v>
+      </c>
+      <c r="R48">
+        <v>1.73</v>
+      </c>
+      <c r="S48">
+        <v>1.06</v>
+      </c>
+      <c r="T48">
+        <v>1.13</v>
+      </c>
+      <c r="U48">
+        <v>3.7</v>
+      </c>
+      <c r="V48">
+        <v>2.86</v>
+      </c>
+      <c r="W48">
+        <v>1.21</v>
+      </c>
+      <c r="X48">
         <v>2.61</v>
       </c>
-      <c r="G48">
-        <v>4.14</v>
-      </c>
-      <c r="H48">
-        <v>2.04</v>
-      </c>
-      <c r="I48">
-        <v>1.01</v>
-      </c>
-      <c r="J48">
-        <v>24</v>
-      </c>
-      <c r="K48">
-        <v>1.08</v>
-      </c>
-      <c r="L48">
-        <v>7.25</v>
-      </c>
-      <c r="M48">
-        <v>1.25</v>
-      </c>
-      <c r="N48">
-        <v>3.42</v>
-      </c>
-      <c r="O48">
-        <v>1.2</v>
-      </c>
-      <c r="P48">
-        <v>4.15</v>
-      </c>
-      <c r="Q48">
-        <v>1.29</v>
-      </c>
-      <c r="R48">
-        <v>3.2</v>
-      </c>
-      <c r="S48">
-        <v>1.9</v>
-      </c>
-      <c r="T48">
-        <v>1.23</v>
-      </c>
-      <c r="U48">
+      <c r="Y48">
+        <v>1.75</v>
+      </c>
+      <c r="Z48">
+        <v>4.36</v>
+      </c>
+      <c r="AA48">
+        <v>1.12</v>
+      </c>
+      <c r="AB48">
+        <v>13.75</v>
+      </c>
+      <c r="AC48">
+        <v>6.65</v>
+      </c>
+      <c r="AD48">
         <v>1.26</v>
       </c>
-      <c r="V48">
-        <v>1.71</v>
-      </c>
-      <c r="W48">
-        <v>2</v>
-      </c>
-      <c r="X48">
-        <v>1.72</v>
-      </c>
-      <c r="Y48">
-        <v>1.55</v>
-      </c>
-      <c r="Z48">
-        <v>3.27</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -6083,103 +6071,103 @@
         <v>64</v>
       </c>
       <c r="B49" s="2">
-        <v>44998.66666666666</v>
+        <v>44998.69791666666</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F49">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="G49">
-        <v>4.7</v>
+        <v>5.95</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="I49">
+        <v>1.03</v>
+      </c>
+      <c r="J49">
+        <v>17</v>
+      </c>
+      <c r="K49">
+        <v>1.2</v>
+      </c>
+      <c r="L49">
+        <v>4.5</v>
+      </c>
+      <c r="M49">
+        <v>1.88</v>
+      </c>
+      <c r="N49">
+        <v>1.92</v>
+      </c>
+      <c r="O49">
+        <v>1.3</v>
+      </c>
+      <c r="P49">
+        <v>3.4</v>
+      </c>
+      <c r="Q49">
+        <v>2.2</v>
+      </c>
+      <c r="R49">
+        <v>1.62</v>
+      </c>
+      <c r="S49">
         <v>1.01</v>
       </c>
-      <c r="J49">
-        <v>19</v>
-      </c>
-      <c r="K49">
-        <v>1.11</v>
-      </c>
-      <c r="L49">
-        <v>6</v>
-      </c>
-      <c r="M49">
-        <v>1.26</v>
-      </c>
-      <c r="N49">
-        <v>3.34</v>
-      </c>
-      <c r="O49">
-        <v>1.25</v>
-      </c>
-      <c r="P49">
-        <v>3.65</v>
-      </c>
-      <c r="Q49">
-        <v>1.33</v>
-      </c>
-      <c r="R49">
-        <v>3</v>
-      </c>
-      <c r="S49">
-        <v>1.3</v>
-      </c>
       <c r="T49">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="U49">
-        <v>1.74</v>
+        <v>4</v>
       </c>
       <c r="V49">
-        <v>1.5</v>
+        <v>2.23</v>
       </c>
       <c r="W49">
-        <v>0.63</v>
+        <v>0.85</v>
       </c>
       <c r="X49">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="Y49">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="Z49">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="50" spans="1:34">
@@ -6187,103 +6175,103 @@
         <v>65</v>
       </c>
       <c r="B50" s="2">
-        <v>44998.6875</v>
+        <v>44998.69791666666</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F50">
-        <v>1.26</v>
+        <v>2.35</v>
       </c>
       <c r="G50">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="H50">
-        <v>9.6</v>
+        <v>3.1</v>
       </c>
       <c r="I50">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="J50">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K50">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="L50">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="M50">
-        <v>1.47</v>
+        <v>2.55</v>
       </c>
       <c r="N50">
-        <v>2.39</v>
+        <v>1.45</v>
       </c>
       <c r="O50">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="P50">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q50">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="R50">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="S50">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="T50">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="U50">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="V50">
-        <v>2.85</v>
+        <v>1.71</v>
       </c>
       <c r="W50">
-        <v>1.31</v>
+        <v>1.79</v>
       </c>
       <c r="X50">
-        <v>2.61</v>
+        <v>1.59</v>
       </c>
       <c r="Y50">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="Z50">
-        <v>4.36</v>
+        <v>2.83</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AD50">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AE50">
-        <v>1.49</v>
+        <v>1.74</v>
       </c>
       <c r="AF50">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="AG50">
-        <v>2.45</v>
+        <v>3.04</v>
       </c>
       <c r="AH50">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="51" spans="1:34">
@@ -6294,100 +6282,100 @@
         <v>44998.69791666666</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F51">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="G51">
-        <v>2.97</v>
+        <v>3.75</v>
       </c>
       <c r="H51">
-        <v>3.31</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="J51">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K51">
+        <v>1.22</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>1.72</v>
+      </c>
+      <c r="N51">
+        <v>2.05</v>
+      </c>
+      <c r="O51">
+        <v>1.33</v>
+      </c>
+      <c r="P51">
+        <v>3.25</v>
+      </c>
+      <c r="Q51">
+        <v>1.67</v>
+      </c>
+      <c r="R51">
+        <v>2.1</v>
+      </c>
+      <c r="S51">
+        <v>1.23</v>
+      </c>
+      <c r="T51">
+        <v>1.24</v>
+      </c>
+      <c r="U51">
+        <v>1.91</v>
+      </c>
+      <c r="V51">
+        <v>2.56</v>
+      </c>
+      <c r="W51">
         <v>1.5</v>
       </c>
-      <c r="L51">
-        <v>2.25</v>
-      </c>
-      <c r="M51">
-        <v>2.39</v>
-      </c>
-      <c r="N51">
-        <v>1.45</v>
-      </c>
-      <c r="O51">
-        <v>1.62</v>
-      </c>
-      <c r="P51">
-        <v>2.2</v>
-      </c>
-      <c r="Q51">
-        <v>2.25</v>
-      </c>
-      <c r="R51">
-        <v>1.57</v>
-      </c>
-      <c r="S51">
-        <v>1.29</v>
-      </c>
-      <c r="T51">
-        <v>1.38</v>
-      </c>
-      <c r="U51">
-        <v>1.6</v>
-      </c>
-      <c r="V51">
-        <v>1.77</v>
-      </c>
-      <c r="W51">
-        <v>1.85</v>
-      </c>
       <c r="X51">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="Y51">
         <v>1.24</v>
       </c>
       <c r="Z51">
-        <v>2.83</v>
+        <v>2.91</v>
       </c>
       <c r="AA51">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AB51">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="AC51">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AD51">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AE51">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="AF51">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AG51">
-        <v>3.04</v>
+        <v>2.75</v>
       </c>
       <c r="AH51">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="52" spans="1:34">
@@ -6395,103 +6383,103 @@
         <v>67</v>
       </c>
       <c r="B52" s="2">
-        <v>44998.69791666666</v>
+        <v>44998.70833333334</v>
       </c>
       <c r="C52">
         <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F52">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="G52">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I52">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="J52">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="K52">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="M52">
-        <v>1.72</v>
+        <v>2.68</v>
       </c>
       <c r="N52">
-        <v>2.05</v>
+        <v>1.41</v>
       </c>
       <c r="O52">
+        <v>1.62</v>
+      </c>
+      <c r="P52">
+        <v>2.2</v>
+      </c>
+      <c r="Q52">
+        <v>2.2</v>
+      </c>
+      <c r="R52">
+        <v>1.62</v>
+      </c>
+      <c r="S52">
         <v>1.33</v>
       </c>
-      <c r="P52">
-        <v>3.25</v>
-      </c>
-      <c r="Q52">
-        <v>1.67</v>
-      </c>
-      <c r="R52">
-        <v>2.1</v>
-      </c>
-      <c r="S52">
-        <v>1.23</v>
-      </c>
       <c r="T52">
+        <v>1.39</v>
+      </c>
+      <c r="U52">
+        <v>1.53</v>
+      </c>
+      <c r="V52">
+        <v>1.2</v>
+      </c>
+      <c r="W52">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="X52">
+        <v>1.49</v>
+      </c>
+      <c r="Y52">
+        <v>1.13</v>
+      </c>
+      <c r="Z52">
+        <v>2.62</v>
+      </c>
+      <c r="AA52">
+        <v>1.62</v>
+      </c>
+      <c r="AB52">
+        <v>8.5</v>
+      </c>
+      <c r="AC52">
+        <v>2.85</v>
+      </c>
+      <c r="AD52">
         <v>1.24</v>
       </c>
-      <c r="U52">
-        <v>1.91</v>
-      </c>
-      <c r="V52">
-        <v>2.67</v>
-      </c>
-      <c r="W52">
-        <v>1.53</v>
-      </c>
-      <c r="X52">
-        <v>1.67</v>
-      </c>
-      <c r="Y52">
-        <v>1.24</v>
-      </c>
-      <c r="Z52">
-        <v>2.91</v>
-      </c>
-      <c r="AA52">
-        <v>1.64</v>
-      </c>
-      <c r="AB52">
-        <v>7.5</v>
-      </c>
-      <c r="AC52">
-        <v>2.67</v>
-      </c>
-      <c r="AD52">
-        <v>1.35</v>
-      </c>
       <c r="AE52">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AF52">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="AG52">
-        <v>2.75</v>
+        <v>2.34</v>
       </c>
       <c r="AH52">
-        <v>3.5</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="53" spans="1:34">
@@ -6499,103 +6487,103 @@
         <v>68</v>
       </c>
       <c r="B53" s="2">
-        <v>44998.69791666666</v>
+        <v>44998.70833333334</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F53">
-        <v>1.21</v>
+        <v>3.5</v>
       </c>
       <c r="G53">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="I53">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="J53">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="K53">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L53">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="N53">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="O53">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="Q53">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="R53">
+        <v>1.8</v>
+      </c>
+      <c r="S53">
+        <v>1.71</v>
+      </c>
+      <c r="T53">
+        <v>1.33</v>
+      </c>
+      <c r="U53">
+        <v>1.27</v>
+      </c>
+      <c r="V53">
         <v>1.62</v>
       </c>
-      <c r="S53">
-        <v>1.01</v>
-      </c>
-      <c r="T53">
-        <v>1.1</v>
-      </c>
-      <c r="U53">
-        <v>4</v>
-      </c>
-      <c r="V53">
-        <v>2.33</v>
-      </c>
       <c r="W53">
-        <v>0.83</v>
+        <v>2.08</v>
       </c>
       <c r="X53">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="Y53">
-        <v>1.21</v>
+        <v>1.61</v>
       </c>
       <c r="Z53">
+        <v>3.5</v>
+      </c>
+      <c r="AA53">
+        <v>2.66</v>
+      </c>
+      <c r="AB53">
+        <v>7.6</v>
+      </c>
+      <c r="AC53">
+        <v>1.73</v>
+      </c>
+      <c r="AD53">
+        <v>1.41</v>
+      </c>
+      <c r="AE53">
+        <v>1.76</v>
+      </c>
+      <c r="AF53">
+        <v>2.28</v>
+      </c>
+      <c r="AG53">
         <v>3.04</v>
       </c>
-      <c r="AA53">
-        <v>1.28</v>
-      </c>
-      <c r="AB53">
-        <v>11.5</v>
-      </c>
-      <c r="AC53">
-        <v>4.55</v>
-      </c>
-      <c r="AD53">
-        <v>1.29</v>
-      </c>
-      <c r="AE53">
-        <v>1.57</v>
-      </c>
-      <c r="AF53">
-        <v>2.01</v>
-      </c>
-      <c r="AG53">
-        <v>2.62</v>
-      </c>
       <c r="AH53">
-        <v>3.56</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="54" spans="1:34">
@@ -6609,19 +6597,19 @@
         <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F54">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H54">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="I54">
         <v>1.05</v>
@@ -6636,10 +6624,10 @@
         <v>3</v>
       </c>
       <c r="M54">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N54">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="O54">
         <v>1.4</v>
@@ -6648,10 +6636,10 @@
         <v>2.7</v>
       </c>
       <c r="Q54">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="R54">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S54">
         <v>1.09</v>
@@ -6663,10 +6651,10 @@
         <v>2.75</v>
       </c>
       <c r="V54">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="W54">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="X54">
         <v>1.58</v>
@@ -6678,28 +6666,28 @@
         <v>2.43</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:34">
@@ -6713,19 +6701,19 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F55">
-        <v>4.17</v>
+        <v>4</v>
       </c>
       <c r="G55">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="H55">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="I55">
         <v>1.06</v>
@@ -6734,16 +6722,16 @@
         <v>6.55</v>
       </c>
       <c r="K55">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="L55">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="M55">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="N55">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O55">
         <v>1.54</v>
@@ -6767,10 +6755,10 @@
         <v>1.21</v>
       </c>
       <c r="V55">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="W55">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>1.98</v>
@@ -6814,100 +6802,100 @@
         <v>44998.70833333334</v>
       </c>
       <c r="C56">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F56">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="G56">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="H56">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="I56">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="J56">
-        <v>5.5</v>
+        <v>6.95</v>
       </c>
       <c r="K56">
+        <v>1.42</v>
+      </c>
+      <c r="L56">
+        <v>2.6</v>
+      </c>
+      <c r="M56">
+        <v>2.35</v>
+      </c>
+      <c r="N56">
+        <v>1.55</v>
+      </c>
+      <c r="O56">
         <v>1.53</v>
       </c>
-      <c r="L56">
-        <v>2.35</v>
-      </c>
-      <c r="M56">
-        <v>2.61</v>
-      </c>
-      <c r="N56">
-        <v>1.38</v>
-      </c>
-      <c r="O56">
+      <c r="P56">
+        <v>2.38</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>1.73</v>
+      </c>
+      <c r="S56">
+        <v>1.3</v>
+      </c>
+      <c r="T56">
+        <v>1.32</v>
+      </c>
+      <c r="U56">
         <v>1.62</v>
       </c>
-      <c r="P56">
-        <v>2.2</v>
-      </c>
-      <c r="Q56">
-        <v>2.2</v>
-      </c>
-      <c r="R56">
-        <v>1.62</v>
-      </c>
-      <c r="S56">
-        <v>1.33</v>
-      </c>
-      <c r="T56">
-        <v>1.39</v>
-      </c>
-      <c r="U56">
-        <v>1.53</v>
-      </c>
       <c r="V56">
-        <v>1.21</v>
+        <v>3</v>
       </c>
       <c r="W56">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="X56">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="Y56">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="Z56">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="AA56">
         <v>1.62</v>
       </c>
       <c r="AB56">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC56">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="AD56">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AE56">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AF56">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AG56">
-        <v>2.34</v>
+        <v>2.17</v>
       </c>
       <c r="AH56">
-        <v>3.08</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="57" spans="1:34">
@@ -6915,103 +6903,103 @@
         <v>72</v>
       </c>
       <c r="B57" s="2">
-        <v>44998.70833333334</v>
+        <v>44998.71875</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F57">
-        <v>3.15</v>
+        <v>2.25</v>
       </c>
       <c r="G57">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H57">
-        <v>2.08</v>
+        <v>3.3</v>
       </c>
       <c r="I57">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="J57">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="K57">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M57">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N57">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="O57">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="P57">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Q57">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R57">
+        <v>1.7</v>
+      </c>
+      <c r="S57">
+        <v>1.22</v>
+      </c>
+      <c r="T57">
+        <v>1.37</v>
+      </c>
+      <c r="U57">
+        <v>1.7</v>
+      </c>
+      <c r="V57">
+        <v>1.83</v>
+      </c>
+      <c r="W57">
+        <v>1.42</v>
+      </c>
+      <c r="X57">
+        <v>1.51</v>
+      </c>
+      <c r="Y57">
+        <v>1.18</v>
+      </c>
+      <c r="Z57">
+        <v>2.69</v>
+      </c>
+      <c r="AA57">
         <v>1.8</v>
       </c>
-      <c r="S57">
-        <v>1.71</v>
-      </c>
-      <c r="T57">
-        <v>1.33</v>
-      </c>
-      <c r="U57">
-        <v>1.27</v>
-      </c>
-      <c r="V57">
-        <v>1.75</v>
-      </c>
-      <c r="W57">
-        <v>2</v>
-      </c>
-      <c r="X57">
-        <v>1.89</v>
-      </c>
-      <c r="Y57">
-        <v>1.61</v>
-      </c>
-      <c r="Z57">
-        <v>3.5</v>
-      </c>
-      <c r="AA57">
-        <v>2.66</v>
-      </c>
       <c r="AB57">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AC57">
-        <v>1.73</v>
+        <v>2.52</v>
       </c>
       <c r="AD57">
+        <v>1.21</v>
+      </c>
+      <c r="AE57">
         <v>1.41</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>1.76</v>
       </c>
-      <c r="AF57">
-        <v>2.28</v>
-      </c>
       <c r="AG57">
-        <v>3.04</v>
+        <v>2.22</v>
       </c>
       <c r="AH57">
-        <v>4.45</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="58" spans="1:34">
@@ -7019,103 +7007,103 @@
         <v>73</v>
       </c>
       <c r="B58" s="2">
-        <v>44998.70833333334</v>
+        <v>44998.75</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E58" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F58">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="H58">
-        <v>3.1</v>
+        <v>3.59</v>
       </c>
       <c r="I58">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J58">
-        <v>6.95</v>
+        <v>7.25</v>
       </c>
       <c r="K58">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="L58">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="M58">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N58">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O58">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="P58">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="R58">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="S58">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T58">
         <v>1.32</v>
       </c>
       <c r="U58">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V58">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="W58">
-        <v>1.33</v>
+        <v>0.25</v>
       </c>
       <c r="X58">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>0.66</v>
       </c>
       <c r="Z58">
-        <v>2.54</v>
+        <v>1.74</v>
       </c>
       <c r="AA58">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AB58">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AC58">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="AD58">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="AE58">
-        <v>1.4</v>
+        <v>1.88</v>
       </c>
       <c r="AF58">
-        <v>1.73</v>
+        <v>2.37</v>
       </c>
       <c r="AG58">
-        <v>2.17</v>
+        <v>3.2</v>
       </c>
       <c r="AH58">
-        <v>2.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:34">
@@ -7123,103 +7111,103 @@
         <v>74</v>
       </c>
       <c r="B59" s="2">
-        <v>44998.71875</v>
+        <v>44998.75</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F59">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="G59">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H59">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I59">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>1.24</v>
+      </c>
+      <c r="L59">
+        <v>4.06</v>
+      </c>
+      <c r="M59">
+        <v>1.76</v>
+      </c>
+      <c r="N59">
+        <v>1.88</v>
+      </c>
+      <c r="O59">
+        <v>1.33</v>
+      </c>
+      <c r="P59">
+        <v>3.25</v>
+      </c>
+      <c r="Q59">
+        <v>1.67</v>
+      </c>
+      <c r="R59">
+        <v>2.1</v>
+      </c>
+      <c r="S59">
+        <v>1.2</v>
+      </c>
+      <c r="T59">
+        <v>1.25</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>0.75</v>
+      </c>
+      <c r="X59">
+        <v>1.75</v>
+      </c>
+      <c r="Y59">
+        <v>1.38</v>
+      </c>
+      <c r="Z59">
+        <v>3.13</v>
+      </c>
+      <c r="AA59">
+        <v>1.69</v>
+      </c>
+      <c r="AB59">
         <v>8</v>
       </c>
-      <c r="K59">
-        <v>1.47</v>
-      </c>
-      <c r="L59">
-        <v>2.7</v>
-      </c>
-      <c r="M59">
-        <v>2.4</v>
-      </c>
-      <c r="N59">
-        <v>1.55</v>
-      </c>
-      <c r="O59">
+      <c r="AC59">
+        <v>2.63</v>
+      </c>
+      <c r="AD59">
+        <v>1.28</v>
+      </c>
+      <c r="AE59">
         <v>1.53</v>
       </c>
-      <c r="P59">
-        <v>2.38</v>
-      </c>
-      <c r="Q59">
-        <v>2.05</v>
-      </c>
-      <c r="R59">
-        <v>1.7</v>
-      </c>
-      <c r="S59">
-        <v>1.22</v>
-      </c>
-      <c r="T59">
-        <v>1.37</v>
-      </c>
-      <c r="U59">
-        <v>1.7</v>
-      </c>
-      <c r="V59">
-        <v>1.73</v>
-      </c>
-      <c r="W59">
-        <v>1.55</v>
-      </c>
-      <c r="X59">
-        <v>1.51</v>
-      </c>
-      <c r="Y59">
-        <v>1.18</v>
-      </c>
-      <c r="Z59">
-        <v>2.69</v>
-      </c>
-      <c r="AA59">
-        <v>1.8</v>
-      </c>
-      <c r="AB59">
-        <v>7.9</v>
-      </c>
-      <c r="AC59">
+      <c r="AF59">
+        <v>1.95</v>
+      </c>
+      <c r="AG59">
         <v>2.52</v>
       </c>
-      <c r="AD59">
-        <v>1.21</v>
-      </c>
-      <c r="AE59">
-        <v>1.41</v>
-      </c>
-      <c r="AF59">
-        <v>1.76</v>
-      </c>
-      <c r="AG59">
-        <v>2.22</v>
-      </c>
       <c r="AH59">
-        <v>2.93</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="60" spans="1:34">
@@ -7233,19 +7221,19 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E60" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F60">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="G60">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="H60">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -7260,10 +7248,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="N60">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -7287,10 +7275,10 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="W60">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X60">
         <v>1.4</v>
@@ -7328,186 +7316,186 @@
     </row>
     <row r="61" spans="1:34">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B61" s="2">
-        <v>44998.75</v>
+        <v>44998.8125</v>
       </c>
       <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61">
+        <v>2.45</v>
+      </c>
+      <c r="G61">
+        <v>3.3</v>
+      </c>
+      <c r="H61">
+        <v>2.7</v>
+      </c>
+      <c r="I61">
+        <v>1.03</v>
+      </c>
+      <c r="J61">
         <v>8</v>
       </c>
-      <c r="D61" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" t="s">
-        <v>217</v>
-      </c>
-      <c r="F61">
+      <c r="K61">
+        <v>1.33</v>
+      </c>
+      <c r="L61">
+        <v>2.97</v>
+      </c>
+      <c r="M61">
+        <v>2.05</v>
+      </c>
+      <c r="N61">
+        <v>1.72</v>
+      </c>
+      <c r="O61">
+        <v>1.4</v>
+      </c>
+      <c r="P61">
+        <v>2.75</v>
+      </c>
+      <c r="Q61">
+        <v>1.73</v>
+      </c>
+      <c r="R61">
         <v>2</v>
       </c>
-      <c r="G61">
-        <v>3.4</v>
-      </c>
-      <c r="H61">
-        <v>3.17</v>
-      </c>
-      <c r="I61">
-        <v>1.04</v>
-      </c>
-      <c r="J61">
-        <v>10</v>
-      </c>
-      <c r="K61">
-        <v>1.24</v>
-      </c>
-      <c r="L61">
-        <v>4.06</v>
-      </c>
-      <c r="M61">
-        <v>1.8</v>
-      </c>
-      <c r="N61">
-        <v>1.91</v>
-      </c>
-      <c r="O61">
-        <v>1.33</v>
-      </c>
-      <c r="P61">
-        <v>3.25</v>
-      </c>
-      <c r="Q61">
-        <v>1.67</v>
-      </c>
-      <c r="R61">
-        <v>2.1</v>
-      </c>
       <c r="S61">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="T61">
+        <v>1.31</v>
+      </c>
+      <c r="U61">
+        <v>1.49</v>
+      </c>
+      <c r="V61">
         <v>1.25</v>
-      </c>
-      <c r="U61">
-        <v>2</v>
-      </c>
-      <c r="V61">
-        <v>2</v>
       </c>
       <c r="W61">
         <v>0.75</v>
       </c>
       <c r="X61">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="Y61">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Z61">
-        <v>3.13</v>
+        <v>2.76</v>
       </c>
       <c r="AA61">
-        <v>1.69</v>
+        <v>1.99</v>
       </c>
       <c r="AB61">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC61">
-        <v>2.63</v>
+        <v>2.13</v>
       </c>
       <c r="AD61">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AE61">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="AF61">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AG61">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="AH61">
-        <v>3.48</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="62" spans="1:34">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2">
-        <v>44998.75</v>
+        <v>44998.83333333334</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E62" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F62">
-        <v>2.15</v>
+        <v>1.18</v>
       </c>
       <c r="G62">
-        <v>3.01</v>
+        <v>6.35</v>
       </c>
       <c r="H62">
-        <v>3.59</v>
+        <v>12.25</v>
       </c>
       <c r="I62">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="J62">
-        <v>7.25</v>
+        <v>23.5</v>
       </c>
       <c r="K62">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="L62">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="M62">
-        <v>2.4</v>
+        <v>1.41</v>
       </c>
       <c r="N62">
-        <v>1.53</v>
+        <v>2.49</v>
       </c>
       <c r="O62">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="P62">
-        <v>2.29</v>
+        <v>3.8</v>
       </c>
       <c r="Q62">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="R62">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="S62">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="T62">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="U62">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="V62">
         <v>3</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X62">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>0.66</v>
+        <v>0.9</v>
       </c>
       <c r="Z62">
-        <v>1.74</v>
+        <v>0.9</v>
       </c>
       <c r="AA62">
         <v>0</v>
@@ -7525,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG62">
         <v>0</v>
@@ -7536,106 +7524,106 @@
     </row>
     <row r="63" spans="1:34">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2">
-        <v>44998.8125</v>
+        <v>44998.83333333334</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E63" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F63">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="G63">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="H63">
-        <v>2.64</v>
+        <v>2.75</v>
       </c>
       <c r="I63">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="J63">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K63">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="L63">
-        <v>2.97</v>
+        <v>3.28</v>
       </c>
       <c r="M63">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="O63">
         <v>1.4</v>
       </c>
       <c r="P63">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="Q63">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S63">
+        <v>1.39</v>
+      </c>
+      <c r="T63">
+        <v>1.29</v>
+      </c>
+      <c r="U63">
+        <v>1.51</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63">
         <v>1.41</v>
-      </c>
-      <c r="T63">
-        <v>1.31</v>
-      </c>
-      <c r="U63">
-        <v>1.49</v>
-      </c>
-      <c r="V63">
-        <v>1.33</v>
-      </c>
-      <c r="W63">
-        <v>0.67</v>
-      </c>
-      <c r="X63">
-        <v>1.37</v>
       </c>
       <c r="Y63">
         <v>1.39</v>
       </c>
       <c r="Z63">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="AA63">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="AB63">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC63">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="AD63">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AE63">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AF63">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AG63">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="AH63">
-        <v>2.79</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="64" spans="1:34">
@@ -7649,10 +7637,10 @@
         <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E64" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -7703,19 +7691,19 @@
         <v>0</v>
       </c>
       <c r="V64">
-        <v>1.3</v>
+        <v>1.91</v>
       </c>
       <c r="W64">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="X64">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="Y64">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="Z64">
-        <v>3.29</v>
+        <v>2.56</v>
       </c>
       <c r="AA64">
         <v>0</v>
@@ -7744,106 +7732,106 @@
     </row>
     <row r="65" spans="1:34">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B65" s="2">
         <v>44998.83333333334</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E65" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F65">
-        <v>6.28</v>
+        <v>1.42</v>
       </c>
       <c r="G65">
-        <v>3.68</v>
+        <v>4</v>
       </c>
       <c r="H65">
-        <v>1.54</v>
+        <v>8.5</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="N65">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V65">
-        <v>1.1</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="X65">
-        <v>1.42</v>
+        <v>2.26</v>
       </c>
       <c r="Y65">
-        <v>2.09</v>
+        <v>1.41</v>
       </c>
       <c r="Z65">
-        <v>3.51</v>
+        <v>3.67</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG65">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AH65">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="66" spans="1:34">
@@ -7857,19 +7845,19 @@
         <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>6.28</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -7884,10 +7872,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -7911,19 +7899,19 @@
         <v>0</v>
       </c>
       <c r="V66">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="W66">
-        <v>0.55</v>
+        <v>2.75</v>
       </c>
       <c r="X66">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="Y66">
-        <v>1.2</v>
+        <v>2.09</v>
       </c>
       <c r="Z66">
-        <v>2.83</v>
+        <v>3.51</v>
       </c>
       <c r="AA66">
         <v>0</v>
@@ -7961,10 +7949,10 @@
         <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -8015,19 +8003,19 @@
         <v>0</v>
       </c>
       <c r="V67">
-        <v>1.91</v>
+        <v>1.3</v>
       </c>
       <c r="W67">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="X67">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="Y67">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="Z67">
-        <v>2.56</v>
+        <v>3.29</v>
       </c>
       <c r="AA67">
         <v>0</v>
@@ -8056,207 +8044,207 @@
     </row>
     <row r="68" spans="1:34">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B68" s="2">
         <v>44998.83333333334</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E68" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F68">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>2.4</v>
+      </c>
+      <c r="W68">
+        <v>0.55</v>
+      </c>
+      <c r="X68">
+        <v>1.63</v>
+      </c>
+      <c r="Y68">
+        <v>1.2</v>
+      </c>
+      <c r="Z68">
         <v>2.83</v>
       </c>
-      <c r="Q68">
-        <v>1.76</v>
-      </c>
-      <c r="R68">
-        <v>2.01</v>
-      </c>
-      <c r="S68">
-        <v>1.39</v>
-      </c>
-      <c r="T68">
-        <v>1.29</v>
-      </c>
-      <c r="U68">
-        <v>1.51</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>1.41</v>
-      </c>
-      <c r="Y68">
-        <v>1.39</v>
-      </c>
-      <c r="Z68">
-        <v>2.8</v>
-      </c>
       <c r="AA68">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AB68">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF68">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG68">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AH68">
-        <v>2.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:34">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2">
-        <v>44998.83333333334</v>
+        <v>44998.83680555555</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F69">
-        <v>1.18</v>
+        <v>2.1</v>
       </c>
       <c r="G69">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H69">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>9.65</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="M69">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="W69">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="Y69">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="Z69">
-        <v>0.9</v>
+        <v>3.08</v>
       </c>
       <c r="AA69">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE69">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF69">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AG69">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AH69">
         <v>0</v>
@@ -8264,91 +8252,91 @@
     </row>
     <row r="70" spans="1:34">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2">
-        <v>44998.83333333334</v>
+        <v>44998.85416666666</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E70" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F70">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="G70">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="I70">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O70">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>0.5</v>
+      </c>
+      <c r="X70">
+        <v>1.51</v>
+      </c>
+      <c r="Y70">
+        <v>0.99</v>
+      </c>
+      <c r="Z70">
         <v>2.5</v>
       </c>
-      <c r="Q70">
-        <v>2.3</v>
-      </c>
-      <c r="R70">
-        <v>1.57</v>
-      </c>
-      <c r="S70">
-        <v>1.08</v>
-      </c>
-      <c r="T70">
-        <v>1.22</v>
-      </c>
-      <c r="U70">
-        <v>2.5</v>
-      </c>
-      <c r="V70">
-        <v>1.92</v>
-      </c>
-      <c r="W70">
-        <v>1.92</v>
-      </c>
-      <c r="X70">
-        <v>2.26</v>
-      </c>
-      <c r="Y70">
-        <v>1.41</v>
-      </c>
-      <c r="Z70">
-        <v>3.67</v>
-      </c>
       <c r="AA70">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AB70">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -8357,57 +8345,57 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AG70">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AH70">
-        <v>2.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:34">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2">
-        <v>44998.83680555555</v>
+        <v>44998.85416666666</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F71">
-        <v>2.02</v>
+        <v>2.65</v>
       </c>
       <c r="G71">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="H71">
-        <v>3.27</v>
+        <v>2.55</v>
       </c>
       <c r="I71">
         <v>1.05</v>
       </c>
       <c r="J71">
-        <v>9.65</v>
+        <v>9</v>
       </c>
       <c r="K71">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="L71">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="N71">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="O71">
         <v>1.4</v>
@@ -8416,474 +8404,474 @@
         <v>2.75</v>
       </c>
       <c r="Q71">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="R71">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="T71">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U71">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="V71">
         <v>2</v>
       </c>
       <c r="W71">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X71">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="Y71">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="Z71">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="AA71">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC71">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AD71">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE71">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AG71">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AH71">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="72" spans="1:34">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
         <v>44998.85416666666</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F72">
+        <v>2.35</v>
+      </c>
+      <c r="G72">
+        <v>3.4</v>
+      </c>
+      <c r="H72">
+        <v>2.95</v>
+      </c>
+      <c r="I72">
+        <v>1.06</v>
+      </c>
+      <c r="J72">
+        <v>8.5</v>
+      </c>
+      <c r="K72">
+        <v>1.32</v>
+      </c>
+      <c r="L72">
+        <v>3.1</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>1.78</v>
+      </c>
+      <c r="O72">
+        <v>1.44</v>
+      </c>
+      <c r="P72">
+        <v>2.63</v>
+      </c>
+      <c r="Q72">
+        <v>1.8</v>
+      </c>
+      <c r="R72">
+        <v>1.91</v>
+      </c>
+      <c r="S72">
+        <v>1.4</v>
+      </c>
+      <c r="T72">
+        <v>1.3</v>
+      </c>
+      <c r="U72">
+        <v>1.55</v>
+      </c>
+      <c r="V72">
+        <v>1.25</v>
+      </c>
+      <c r="W72">
+        <v>1.67</v>
+      </c>
+      <c r="X72">
+        <v>2.31</v>
+      </c>
+      <c r="Y72">
         <v>1.57</v>
       </c>
-      <c r="G72">
-        <v>3.58</v>
-      </c>
-      <c r="H72">
-        <v>5.2</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>2.03</v>
-      </c>
-      <c r="N72">
-        <v>1.73</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>1</v>
-      </c>
-      <c r="W72">
-        <v>0.33</v>
-      </c>
-      <c r="X72">
-        <v>1.51</v>
-      </c>
-      <c r="Y72">
-        <v>0.99</v>
-      </c>
       <c r="Z72">
-        <v>2.5</v>
+        <v>3.88</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF72">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AG72">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AH72">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="73" spans="1:34">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B73" s="2">
         <v>44998.85416666666</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E73" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F73">
-        <v>2.42</v>
+        <v>1.43</v>
       </c>
       <c r="G73">
-        <v>3.45</v>
+        <v>4.12</v>
       </c>
       <c r="H73">
-        <v>2.43</v>
+        <v>5.9</v>
       </c>
       <c r="I73">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="K73">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.74</v>
       </c>
       <c r="M73">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="N73">
-        <v>1.87</v>
+        <v>2.03</v>
       </c>
       <c r="O73">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P73">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q73">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S73">
-        <v>1.49</v>
+        <v>1.11</v>
       </c>
       <c r="T73">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="U73">
-        <v>1.49</v>
+        <v>2.19</v>
       </c>
       <c r="V73">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="W73">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="X73">
-        <v>1.55</v>
+        <v>2.61</v>
       </c>
       <c r="Y73">
+        <v>0.78</v>
+      </c>
+      <c r="Z73">
+        <v>3.39</v>
+      </c>
+      <c r="AA73">
+        <v>1.15</v>
+      </c>
+      <c r="AB73">
+        <v>11</v>
+      </c>
+      <c r="AC73">
+        <v>6.8</v>
+      </c>
+      <c r="AD73">
+        <v>1.3</v>
+      </c>
+      <c r="AE73">
         <v>1.57</v>
       </c>
-      <c r="Z73">
-        <v>3.12</v>
-      </c>
-      <c r="AA73">
-        <v>1.75</v>
-      </c>
-      <c r="AB73">
-        <v>8</v>
-      </c>
-      <c r="AC73">
-        <v>2.44</v>
-      </c>
-      <c r="AD73">
-        <v>1.24</v>
-      </c>
-      <c r="AE73">
-        <v>1.47</v>
-      </c>
       <c r="AF73">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="AG73">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="AH73">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="74" spans="1:34">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2">
         <v>44998.85416666666</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E74" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F74">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="G74">
-        <v>3.31</v>
+        <v>3.2</v>
       </c>
       <c r="H74">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="I74">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="J74">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="K74">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>2.67</v>
       </c>
       <c r="M74">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N74">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="O74">
+        <v>1.47</v>
+      </c>
+      <c r="P74">
+        <v>2.57</v>
+      </c>
+      <c r="Q74">
+        <v>1.95</v>
+      </c>
+      <c r="R74">
+        <v>1.81</v>
+      </c>
+      <c r="S74">
+        <v>1.2</v>
+      </c>
+      <c r="T74">
+        <v>1.29</v>
+      </c>
+      <c r="U74">
+        <v>1.88</v>
+      </c>
+      <c r="V74">
+        <v>1.11</v>
+      </c>
+      <c r="W74">
         <v>1.44</v>
       </c>
-      <c r="P74">
-        <v>2.63</v>
-      </c>
-      <c r="Q74">
-        <v>1.8</v>
-      </c>
-      <c r="R74">
-        <v>1.91</v>
-      </c>
-      <c r="S74">
-        <v>1.4</v>
-      </c>
-      <c r="T74">
-        <v>1.3</v>
-      </c>
-      <c r="U74">
-        <v>1.55</v>
-      </c>
-      <c r="V74">
-        <v>1.33</v>
-      </c>
-      <c r="W74">
-        <v>2</v>
-      </c>
       <c r="X74">
-        <v>2.31</v>
+        <v>0.99</v>
       </c>
       <c r="Y74">
+        <v>1.51</v>
+      </c>
+      <c r="Z74">
+        <v>2.5</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
         <v>1.57</v>
       </c>
-      <c r="Z74">
-        <v>3.88</v>
-      </c>
-      <c r="AA74">
-        <v>1.75</v>
-      </c>
-      <c r="AB74">
-        <v>8</v>
-      </c>
-      <c r="AC74">
-        <v>2.44</v>
-      </c>
-      <c r="AD74">
-        <v>1.24</v>
-      </c>
-      <c r="AE74">
-        <v>1.47</v>
-      </c>
-      <c r="AF74">
-        <v>1.86</v>
-      </c>
       <c r="AG74">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="AH74">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="75" spans="1:34">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B75" s="2">
-        <v>44998.85416666666</v>
+        <v>44998.875</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E75" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F75">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G75">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="M75">
         <v>2.25</v>
       </c>
       <c r="N75">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="V75">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="W75">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="X75">
-        <v>0.99</v>
+        <v>1.35</v>
       </c>
       <c r="Y75">
-        <v>1.51</v>
+        <v>0.91</v>
       </c>
       <c r="Z75">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC75">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AD75">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE75">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF75">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG75">
-        <v>1.98</v>
+        <v>2.45</v>
       </c>
       <c r="AH75">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="76" spans="1:34">
@@ -8897,304 +8885,200 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F76">
+        <v>2.62</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>2.8</v>
+      </c>
+      <c r="I76">
+        <v>1.11</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
+      </c>
+      <c r="K76">
+        <v>1.5</v>
+      </c>
+      <c r="L76">
+        <v>2.5</v>
+      </c>
+      <c r="M76">
+        <v>2.45</v>
+      </c>
+      <c r="N76">
+        <v>1.5</v>
+      </c>
+      <c r="O76">
+        <v>1.53</v>
+      </c>
+      <c r="P76">
+        <v>2.38</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76">
         <v>1.75</v>
       </c>
-      <c r="G76">
-        <v>3.3</v>
-      </c>
-      <c r="H76">
-        <v>5</v>
-      </c>
-      <c r="I76">
-        <v>1.1</v>
-      </c>
-      <c r="J76">
-        <v>6.5</v>
-      </c>
-      <c r="K76">
-        <v>1.44</v>
-      </c>
-      <c r="L76">
-        <v>2.62</v>
-      </c>
-      <c r="M76">
-        <v>2.25</v>
-      </c>
-      <c r="N76">
-        <v>1.58</v>
-      </c>
-      <c r="O76">
-        <v>1.5</v>
-      </c>
-      <c r="P76">
-        <v>2.5</v>
-      </c>
-      <c r="Q76">
-        <v>2.1</v>
-      </c>
-      <c r="R76">
-        <v>1.67</v>
-      </c>
       <c r="S76">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="T76">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="U76">
-        <v>2.09</v>
+        <v>1.47</v>
       </c>
       <c r="V76">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="W76">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="X76">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="Y76">
-        <v>0.91</v>
+        <v>1.94</v>
       </c>
       <c r="Z76">
-        <v>2.26</v>
+        <v>3.82</v>
       </c>
       <c r="AA76">
-        <v>1.29</v>
+        <v>1.76</v>
       </c>
       <c r="AB76">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AC76">
-        <v>4.05</v>
+        <v>2.4</v>
       </c>
       <c r="AD76">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AE76">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AF76">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AG76">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AH76">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="77" spans="1:34">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B77" s="2">
         <v>44998.875</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F77">
-        <v>2.62</v>
+        <v>1.68</v>
       </c>
       <c r="G77">
+        <v>3.33</v>
+      </c>
+      <c r="H77">
+        <v>3.8</v>
+      </c>
+      <c r="I77">
+        <v>1.05</v>
+      </c>
+      <c r="J77">
+        <v>7.2</v>
+      </c>
+      <c r="K77">
+        <v>1.39</v>
+      </c>
+      <c r="L77">
+        <v>2.67</v>
+      </c>
+      <c r="M77">
+        <v>2.23</v>
+      </c>
+      <c r="N77">
+        <v>1.58</v>
+      </c>
+      <c r="O77">
+        <v>1.44</v>
+      </c>
+      <c r="P77">
+        <v>2.63</v>
+      </c>
+      <c r="Q77">
+        <v>2.1</v>
+      </c>
+      <c r="R77">
+        <v>1.67</v>
+      </c>
+      <c r="S77">
+        <v>1.16</v>
+      </c>
+      <c r="T77">
+        <v>1.29</v>
+      </c>
+      <c r="U77">
+        <v>2.1</v>
+      </c>
+      <c r="V77">
         <v>3</v>
       </c>
-      <c r="H77">
-        <v>2.8</v>
-      </c>
-      <c r="I77">
-        <v>1.11</v>
-      </c>
-      <c r="J77">
-        <v>6</v>
-      </c>
-      <c r="K77">
-        <v>1.5</v>
-      </c>
-      <c r="L77">
-        <v>2.5</v>
-      </c>
-      <c r="M77">
-        <v>2.45</v>
-      </c>
-      <c r="N77">
-        <v>1.5</v>
-      </c>
-      <c r="O77">
-        <v>1.53</v>
-      </c>
-      <c r="P77">
-        <v>2.38</v>
-      </c>
-      <c r="Q77">
-        <v>2</v>
-      </c>
-      <c r="R77">
-        <v>1.75</v>
-      </c>
-      <c r="S77">
-        <v>1.41</v>
-      </c>
-      <c r="T77">
-        <v>1.35</v>
-      </c>
-      <c r="U77">
-        <v>1.47</v>
-      </c>
-      <c r="V77">
-        <v>0.33</v>
-      </c>
       <c r="W77">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X77">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="Y77">
-        <v>1.94</v>
+        <v>0.97</v>
       </c>
       <c r="Z77">
-        <v>3.82</v>
+        <v>2.81</v>
       </c>
       <c r="AA77">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AB77">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AD77">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AE77">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AF77">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="AG77">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="AH77">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34">
-      <c r="A78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" s="2">
-        <v>44998.875</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E78" t="s">
-        <v>234</v>
-      </c>
-      <c r="F78">
-        <v>1.68</v>
-      </c>
-      <c r="G78">
-        <v>3.33</v>
-      </c>
-      <c r="H78">
-        <v>3.8</v>
-      </c>
-      <c r="I78">
-        <v>1.05</v>
-      </c>
-      <c r="J78">
-        <v>7.2</v>
-      </c>
-      <c r="K78">
-        <v>1.39</v>
-      </c>
-      <c r="L78">
-        <v>2.67</v>
-      </c>
-      <c r="M78">
-        <v>2.23</v>
-      </c>
-      <c r="N78">
-        <v>1.58</v>
-      </c>
-      <c r="O78">
-        <v>1.44</v>
-      </c>
-      <c r="P78">
-        <v>2.63</v>
-      </c>
-      <c r="Q78">
-        <v>2.1</v>
-      </c>
-      <c r="R78">
-        <v>1.67</v>
-      </c>
-      <c r="S78">
-        <v>1.16</v>
-      </c>
-      <c r="T78">
-        <v>1.29</v>
-      </c>
-      <c r="U78">
-        <v>2.1</v>
-      </c>
-      <c r="V78">
-        <v>3</v>
-      </c>
-      <c r="W78">
-        <v>1</v>
-      </c>
-      <c r="X78">
-        <v>1.84</v>
-      </c>
-      <c r="Y78">
-        <v>0.97</v>
-      </c>
-      <c r="Z78">
-        <v>2.81</v>
-      </c>
-      <c r="AA78">
-        <v>0</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-      <c r="AD78">
-        <v>1.32</v>
-      </c>
-      <c r="AE78">
-        <v>1.58</v>
-      </c>
-      <c r="AF78">
-        <v>2.02</v>
-      </c>
-      <c r="AG78">
-        <v>2.7</v>
-      </c>
-      <c r="AH78">
         <v>3.8</v>
       </c>
     </row>
